--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3370066.612512765</v>
+        <v>3464737.076295604</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>43.19563242961156</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>61.71927587612997</v>
       </c>
     </row>
     <row r="3">
@@ -795,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>141.3236091729816</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.9313784350742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>285.9011577607957</v>
+        <v>407.6572519168028</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1035,7 +1037,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>189.5968436493439</v>
+        <v>71.27833349215638</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>148.5947552587251</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>215.5730384768609</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>281.6126679114864</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1387,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H11" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>111.435299014555</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T11" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0030623803237</v>
+        <v>251.003062380322</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>20.19676721607328</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>16.9295999026786</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2142514133935</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.0203559212046</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>135.5097179026757</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>96.39899565460472</v>
       </c>
       <c r="T16" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.0203559212052</v>
+        <v>411.0203559212046</v>
       </c>
       <c r="H17" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,10 +1900,10 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>100.8001623638747</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>86.15224721759745</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>158.4928132020622</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>190.5400452173542</v>
+        <v>182.9393678543457</v>
       </c>
       <c r="T22" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2142514133935</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>81.91345502269155</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.27990571818236</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956057</v>
+        <v>83.31500764952284</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S28" t="n">
-        <v>97.93786073229141</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>102.2549853175529</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S31" t="n">
         <v>190.5400452173542</v>
@@ -3004,13 +3006,13 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>261.7985166705178</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>121.2391933134922</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>95.49352330187496</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,10 +3283,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H35" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0030623803228</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>56.81295143734818</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>138.9869466817266</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>77.02828561320511</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>190.8626508993443</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,10 +3757,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H41" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T41" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U41" t="n">
-        <v>251.003062380322</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>162.4018459780624</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>9.528609016241521</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,7 +3915,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>97.68290229956057</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,10 +3994,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H44" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040323</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U44" t="n">
-        <v>251.003062380322</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>35.35207467421918</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>119.812241337535</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.080506218543</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781316</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2653.51713906912</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.51713906912</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2653.51713906912</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2653.51713906912</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2322.454251725549</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1969.685596455435</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1596.219838194355</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1206.080506218543</v>
+        <v>1578.435103297744</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4407,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4443,7 +4445,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2339.812365142453</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="C4" t="n">
-        <v>2170.876182214546</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.876182214546</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y4" t="n">
-        <v>2521.460829972693</v>
+        <v>365.6939024587812</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.506187451444</v>
+        <v>1739.145928656049</v>
       </c>
       <c r="C5" t="n">
-        <v>1139.506187451444</v>
+        <v>1370.183411715637</v>
       </c>
       <c r="D5" t="n">
-        <v>1139.506187451444</v>
+        <v>1011.917713108887</v>
       </c>
       <c r="E5" t="n">
-        <v>753.7179348531999</v>
+        <v>626.1294605106427</v>
       </c>
       <c r="F5" t="n">
-        <v>342.7320300635924</v>
+        <v>619.1839597614393</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y5" t="n">
-        <v>1526.106027515566</v>
+        <v>2125.745768720171</v>
       </c>
     </row>
     <row r="6">
@@ -4656,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>536.6170209242687</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1718.448825665083</v>
+        <v>1760.906005007191</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1760.906005007191</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1402.64030640044</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1016.852053802196</v>
       </c>
       <c r="F8" t="n">
         <v>799.1015098861747</v>
@@ -4805,7 +4807,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224075</v>
@@ -4829,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="X8" t="n">
-        <v>2105.048665729205</v>
+        <v>2147.505845071312</v>
       </c>
       <c r="Y8" t="n">
-        <v>2105.048665729205</v>
+        <v>2147.505845071312</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4887,46 +4889,46 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036444</v>
@@ -4987,25 +4989,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5021,55 +5023,55 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H11" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I11" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K11" t="n">
         <v>597.7080858612028</v>
       </c>
       <c r="L11" t="n">
-        <v>1327.278034693954</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M11" t="n">
-        <v>2288.682911641542</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N11" t="n">
         <v>3251.012327070182</v>
       </c>
       <c r="O11" t="n">
-        <v>4114.525067779332</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P11" t="n">
-        <v>4495.258109903961</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q11" t="n">
-        <v>4733.000021926295</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R11" t="n">
-        <v>4785.883460762038</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S11" t="n">
-        <v>4673.322552666528</v>
+        <v>4673.322552666526</v>
       </c>
       <c r="T11" t="n">
-        <v>4466.908689902184</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U11" t="n">
         <v>4213.370243053372</v>
@@ -5115,7 +5117,7 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I12" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
         <v>184.4590143936092</v>
@@ -5136,7 +5138,7 @@
         <v>2062.146616470409</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q12" t="n">
         <v>2587.498588679581</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.0083916788817</v>
+        <v>677.4306432980798</v>
       </c>
       <c r="C13" t="n">
-        <v>263.0083916788817</v>
+        <v>508.4944603701729</v>
       </c>
       <c r="D13" t="n">
-        <v>242.6076167131511</v>
+        <v>358.3778209578371</v>
       </c>
       <c r="E13" t="n">
-        <v>242.6076167131511</v>
+        <v>358.3778209578371</v>
       </c>
       <c r="F13" t="n">
-        <v>95.71766921524078</v>
+        <v>211.4878734599268</v>
       </c>
       <c r="G13" t="n">
-        <v>95.71766921524078</v>
+        <v>211.4878734599268</v>
       </c>
       <c r="H13" t="n">
-        <v>95.71766921524078</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I13" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J13" t="n">
         <v>137.7436613720288</v>
@@ -5224,25 +5226,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1720.613957833929</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.656398353472</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.551093895499</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V13" t="n">
-        <v>954.8666056896121</v>
+        <v>1369.28885730881</v>
       </c>
       <c r="W13" t="n">
-        <v>665.4494356526516</v>
+        <v>1079.87168727185</v>
       </c>
       <c r="X13" t="n">
-        <v>665.4494356526516</v>
+        <v>1079.87168727185</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.6568565091214</v>
+        <v>859.0791081283195</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2379.333770138674</v>
       </c>
       <c r="C14" t="n">
-        <v>2010.371253198263</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
         <v>1652.105554591512</v>
@@ -5267,58 +5269,58 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H14" t="n">
         <v>141.5554198924157</v>
       </c>
       <c r="I14" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K14" t="n">
-        <v>918.6120443066559</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L14" t="n">
-        <v>1767.721909941648</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M14" t="n">
-        <v>2284.108388731332</v>
+        <v>2288.682911641541</v>
       </c>
       <c r="N14" t="n">
-        <v>3246.437804159972</v>
+        <v>3251.012327070182</v>
       </c>
       <c r="O14" t="n">
-        <v>4109.950544869122</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P14" t="n">
-        <v>4495.258109903961</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q14" t="n">
-        <v>4733.000021926295</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R14" t="n">
-        <v>4785.883460762038</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S14" t="n">
-        <v>4673.322552666527</v>
+        <v>4673.322552666526</v>
       </c>
       <c r="T14" t="n">
-        <v>4466.908689902183</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U14" t="n">
-        <v>4213.370243053373</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V14" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962.9247759646606</v>
+        <v>3161.309648047117</v>
       </c>
       <c r="C15" t="n">
-        <v>788.4717466835336</v>
+        <v>2986.85661876599</v>
       </c>
       <c r="D15" t="n">
-        <v>639.5373370222824</v>
+        <v>2837.922209104739</v>
       </c>
       <c r="E15" t="n">
-        <v>480.2998820168269</v>
+        <v>2678.684754099283</v>
       </c>
       <c r="F15" t="n">
-        <v>333.7653240437119</v>
+        <v>2532.150196126168</v>
       </c>
       <c r="G15" t="n">
-        <v>197.3489189817664</v>
+        <v>2395.733791064222</v>
       </c>
       <c r="H15" t="n">
-        <v>106.3322115589798</v>
+        <v>2304.717083641436</v>
       </c>
       <c r="I15" t="n">
-        <v>95.71766921524078</v>
+        <v>2294.102541297696</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4590143936092</v>
+        <v>2382.843886476065</v>
       </c>
       <c r="K15" t="n">
-        <v>414.2869325418657</v>
+        <v>2612.671804624321</v>
       </c>
       <c r="L15" t="n">
-        <v>769.6414721740668</v>
+        <v>2968.026344256522</v>
       </c>
       <c r="M15" t="n">
-        <v>1203.680327106302</v>
+        <v>3402.065199188758</v>
       </c>
       <c r="N15" t="n">
-        <v>1663.615543921421</v>
+        <v>3862.000416003876</v>
       </c>
       <c r="O15" t="n">
-        <v>2136.002693439725</v>
+        <v>4260.531488552864</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.525948037006</v>
+        <v>4634.910820119462</v>
       </c>
       <c r="Q15" t="n">
-        <v>2587.498588679581</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R15" t="n">
-        <v>2587.498588679581</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S15" t="n">
-        <v>2457.070587135881</v>
+        <v>4655.455459218338</v>
       </c>
       <c r="T15" t="n">
-        <v>2264.212730681702</v>
+        <v>4462.597602764158</v>
       </c>
       <c r="U15" t="n">
-        <v>2036.14137691516</v>
+        <v>4234.526248997616</v>
       </c>
       <c r="V15" t="n">
-        <v>1800.989268683417</v>
+        <v>3999.374140765873</v>
       </c>
       <c r="W15" t="n">
-        <v>1546.751911955215</v>
+        <v>3745.136784037672</v>
       </c>
       <c r="X15" t="n">
-        <v>1338.900411749682</v>
+        <v>3537.285283832139</v>
       </c>
       <c r="Y15" t="n">
-        <v>1131.140112984729</v>
+        <v>3329.524985067185</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>232.5961721472364</v>
+        <v>509.0247406537912</v>
       </c>
       <c r="C16" t="n">
-        <v>232.5961721472364</v>
+        <v>509.0247406537912</v>
       </c>
       <c r="D16" t="n">
-        <v>232.5961721472364</v>
+        <v>509.0247406537912</v>
       </c>
       <c r="E16" t="n">
-        <v>232.5961721472364</v>
+        <v>509.0247406537912</v>
       </c>
       <c r="F16" t="n">
-        <v>232.5961721472364</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524078</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H16" t="n">
-        <v>95.71766921524078</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I16" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J16" t="n">
         <v>137.7436613720288</v>
@@ -5461,25 +5463,25 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.77411916334</v>
+        <v>1723.866088418643</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682884</v>
+        <v>1501.908528938186</v>
       </c>
       <c r="U16" t="n">
-        <v>1117.71125522491</v>
+        <v>1501.908528938186</v>
       </c>
       <c r="V16" t="n">
-        <v>863.0267670190236</v>
+        <v>1247.224040732299</v>
       </c>
       <c r="W16" t="n">
-        <v>863.0267670190236</v>
+        <v>957.8068706953387</v>
       </c>
       <c r="X16" t="n">
-        <v>635.0372161210063</v>
+        <v>729.8173197973214</v>
       </c>
       <c r="Y16" t="n">
-        <v>414.2446369774761</v>
+        <v>509.0247406537912</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5494,70 @@
         <v>2379.333770138674</v>
       </c>
       <c r="C17" t="n">
-        <v>2010.371253198263</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E17" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036606</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G17" t="n">
         <v>440.1593205155744</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I17" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K17" t="n">
-        <v>597.7080858612028</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1262.218779019701</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M17" t="n">
-        <v>2223.623655967289</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N17" t="n">
-        <v>3185.953071395929</v>
+        <v>3413.843453180326</v>
       </c>
       <c r="O17" t="n">
-        <v>4049.465812105079</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P17" t="n">
-        <v>4430.198854229708</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.940766252042</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R17" t="n">
-        <v>4785.883460762038</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S17" t="n">
-        <v>4673.322552666527</v>
+        <v>4673.322552666526</v>
       </c>
       <c r="T17" t="n">
-        <v>4466.908689902183</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U17" t="n">
-        <v>4213.370243053373</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y17" t="n">
         <v>2765.933610202796</v>
@@ -5589,7 +5591,7 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I18" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
         <v>184.4590143936092</v>
@@ -5598,19 +5600,19 @@
         <v>414.2869325418657</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433829</v>
+        <v>769.6414721740668</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.536404075619</v>
+        <v>1203.680327106302</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.471620890737</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O18" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q18" t="n">
         <v>2587.498588679581</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.588837377579</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="C19" t="n">
-        <v>347.6526544496721</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="D19" t="n">
-        <v>197.5360150373364</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="E19" t="n">
-        <v>95.71766921524078</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F19" t="n">
-        <v>95.71766921524078</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G19" t="n">
-        <v>95.71766921524078</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H19" t="n">
-        <v>95.71766921524078</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I19" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J19" t="n">
         <v>137.7436613720288</v>
@@ -5695,28 +5697,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S19" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T19" t="n">
-        <v>1691.121090492214</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="U19" t="n">
-        <v>1691.121090492214</v>
+        <v>1541.751647226373</v>
       </c>
       <c r="V19" t="n">
-        <v>1436.436602286327</v>
+        <v>1541.751647226373</v>
       </c>
       <c r="W19" t="n">
-        <v>1147.019432249366</v>
+        <v>1252.334477189413</v>
       </c>
       <c r="X19" t="n">
-        <v>919.0298813513489</v>
+        <v>1024.344926291395</v>
       </c>
       <c r="Y19" t="n">
-        <v>698.2373022078187</v>
+        <v>803.5523471478652</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5746,34 @@
         <v>440.1593205155744</v>
       </c>
       <c r="H20" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I20" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K20" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066559</v>
       </c>
       <c r="L20" t="n">
-        <v>1935.127558962002</v>
+        <v>1767.721909941648</v>
       </c>
       <c r="M20" t="n">
-        <v>2451.514037751685</v>
+        <v>2284.108388731332</v>
       </c>
       <c r="N20" t="n">
-        <v>2980.869998012461</v>
+        <v>2932.431605980414</v>
       </c>
       <c r="O20" t="n">
-        <v>3844.382738721611</v>
+        <v>3795.944346689563</v>
       </c>
       <c r="P20" t="n">
-        <v>4430.198854229707</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5786,13 +5788,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y20" t="n">
         <v>2765.933610202796</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>962.9247759646606</v>
+        <v>3161.309648047117</v>
       </c>
       <c r="C21" t="n">
-        <v>788.4717466835336</v>
+        <v>2986.85661876599</v>
       </c>
       <c r="D21" t="n">
-        <v>639.5373370222824</v>
+        <v>2837.922209104739</v>
       </c>
       <c r="E21" t="n">
-        <v>480.2998820168269</v>
+        <v>2678.684754099283</v>
       </c>
       <c r="F21" t="n">
-        <v>333.7653240437119</v>
+        <v>2532.150196126168</v>
       </c>
       <c r="G21" t="n">
-        <v>197.3489189817664</v>
+        <v>2395.733791064222</v>
       </c>
       <c r="H21" t="n">
-        <v>106.3322115589798</v>
+        <v>2304.717083641436</v>
       </c>
       <c r="I21" t="n">
-        <v>95.71766921524078</v>
+        <v>2294.102541297696</v>
       </c>
       <c r="J21" t="n">
-        <v>184.4590143936092</v>
+        <v>2382.843886476065</v>
       </c>
       <c r="K21" t="n">
-        <v>414.2869325418657</v>
+        <v>2686.527881593638</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433829</v>
+        <v>3041.882421225839</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.536404075619</v>
+        <v>3475.921276158075</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.471620890737</v>
+        <v>3935.856492973193</v>
       </c>
       <c r="O21" t="n">
-        <v>2136.002693439725</v>
+        <v>4334.387565522181</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.525948037006</v>
+        <v>4634.910820119462</v>
       </c>
       <c r="Q21" t="n">
-        <v>2587.498588679581</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R21" t="n">
-        <v>2587.498588679581</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S21" t="n">
-        <v>2457.070587135881</v>
+        <v>4655.455459218338</v>
       </c>
       <c r="T21" t="n">
-        <v>2264.212730681702</v>
+        <v>4462.597602764158</v>
       </c>
       <c r="U21" t="n">
-        <v>2036.14137691516</v>
+        <v>4234.526248997616</v>
       </c>
       <c r="V21" t="n">
-        <v>1800.989268683417</v>
+        <v>3999.374140765873</v>
       </c>
       <c r="W21" t="n">
-        <v>1546.751911955215</v>
+        <v>3745.136784037672</v>
       </c>
       <c r="X21" t="n">
-        <v>1338.900411749682</v>
+        <v>3537.285283832139</v>
       </c>
       <c r="Y21" t="n">
-        <v>1131.140112984729</v>
+        <v>3329.524985067185</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>255.8114199243945</v>
+        <v>264.6538521431477</v>
       </c>
       <c r="C22" t="n">
-        <v>255.8114199243945</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D22" t="n">
-        <v>255.8114199243945</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E22" t="n">
-        <v>255.8114199243945</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F22" t="n">
-        <v>255.8114199243945</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G22" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H22" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I22" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J22" t="n">
         <v>137.7436613720288</v>
@@ -5935,25 +5937,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>1720.613957833929</v>
+        <v>1728.291409715756</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.656398353472</v>
+        <v>1728.291409715756</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.551093895499</v>
+        <v>1439.186105257782</v>
       </c>
       <c r="V22" t="n">
-        <v>954.8666056896121</v>
+        <v>1184.501617051895</v>
       </c>
       <c r="W22" t="n">
-        <v>665.4494356526516</v>
+        <v>895.0844470149349</v>
       </c>
       <c r="X22" t="n">
-        <v>437.4598847546342</v>
+        <v>667.0948961169175</v>
       </c>
       <c r="Y22" t="n">
-        <v>437.4598847546342</v>
+        <v>446.3023169733874</v>
       </c>
     </row>
     <row r="23">
@@ -5972,7 +5974,7 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F23" t="n">
         <v>855.3313972036599</v>
@@ -5981,37 +5983,37 @@
         <v>440.1593205155744</v>
       </c>
       <c r="H23" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I23" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K23" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066559</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.642956557056</v>
+        <v>1376.611513097797</v>
       </c>
       <c r="M23" t="n">
-        <v>2483.047833504644</v>
+        <v>2338.016390045384</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.403793765419</v>
+        <v>2867.372350306161</v>
       </c>
       <c r="O23" t="n">
-        <v>3875.916534474569</v>
+        <v>3730.88509101531</v>
       </c>
       <c r="P23" t="n">
-        <v>4256.649576599198</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4667.940766252042</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R23" t="n">
-        <v>4785.883460762038</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S23" t="n">
         <v>4673.322552666526</v>
@@ -6023,13 +6025,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y23" t="n">
         <v>2765.933610202796</v>
@@ -6063,19 +6065,19 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I24" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
         <v>184.4590143936092</v>
       </c>
       <c r="K24" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L24" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M24" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N24" t="n">
         <v>1737.471620890737</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>362.134793155881</v>
+        <v>559.1814586372216</v>
       </c>
       <c r="C25" t="n">
-        <v>362.134793155881</v>
+        <v>390.2452757093147</v>
       </c>
       <c r="D25" t="n">
-        <v>362.134793155881</v>
+        <v>390.2452757093147</v>
       </c>
       <c r="E25" t="n">
-        <v>362.134793155881</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="F25" t="n">
-        <v>362.134793155881</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="G25" t="n">
-        <v>194.3872674976252</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H25" t="n">
-        <v>194.3872674976252</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I25" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J25" t="n">
         <v>137.7436613720288</v>
@@ -6169,28 +6171,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S25" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T25" t="n">
-        <v>1691.121090492214</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U25" t="n">
-        <v>1402.015786034241</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="V25" t="n">
-        <v>1147.331297828354</v>
+        <v>1152.132071476997</v>
       </c>
       <c r="W25" t="n">
-        <v>857.914127791393</v>
+        <v>862.7149014400361</v>
       </c>
       <c r="X25" t="n">
-        <v>629.9245768933756</v>
+        <v>862.7149014400361</v>
       </c>
       <c r="Y25" t="n">
-        <v>543.7832579861207</v>
+        <v>641.922322296506</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6217,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H26" t="n">
         <v>141.5554198924156</v>
@@ -6230,22 +6232,22 @@
         <v>765.1137348815558</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.223600516548</v>
+        <v>1200.738998111603</v>
       </c>
       <c r="M26" t="n">
-        <v>2575.628477464136</v>
+        <v>2136.902529248586</v>
       </c>
       <c r="N26" t="n">
-        <v>3537.957892892777</v>
+        <v>3099.231944677226</v>
       </c>
       <c r="O26" t="n">
-        <v>4049.465812105078</v>
+        <v>3585.752505936257</v>
       </c>
       <c r="P26" t="n">
-        <v>4430.198854229707</v>
+        <v>4285.066269150654</v>
       </c>
       <c r="Q26" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1122.605169488108</v>
+        <v>645.5415778505206</v>
       </c>
       <c r="C28" t="n">
-        <v>953.668986560201</v>
+        <v>476.6053949226138</v>
       </c>
       <c r="D28" t="n">
-        <v>803.5523471478652</v>
+        <v>326.488755510278</v>
       </c>
       <c r="E28" t="n">
-        <v>655.6392535654721</v>
+        <v>326.488755510278</v>
       </c>
       <c r="F28" t="n">
-        <v>508.7493060675617</v>
+        <v>326.488755510278</v>
       </c>
       <c r="G28" t="n">
-        <v>341.001780409306</v>
+        <v>326.488755510278</v>
       </c>
       <c r="H28" t="n">
-        <v>194.3872674976251</v>
+        <v>179.8742425985972</v>
       </c>
       <c r="I28" t="n">
         <v>95.71766921524075</v>
@@ -6406,28 +6408,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S28" t="n">
-        <v>1814.151517919851</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="T28" t="n">
-        <v>1814.151517919851</v>
+        <v>1599.281251821625</v>
       </c>
       <c r="U28" t="n">
-        <v>1525.046213461878</v>
+        <v>1599.281251821625</v>
       </c>
       <c r="V28" t="n">
-        <v>1525.046213461878</v>
+        <v>1344.596763615738</v>
       </c>
       <c r="W28" t="n">
-        <v>1525.046213461878</v>
+        <v>1055.179593578778</v>
       </c>
       <c r="X28" t="n">
-        <v>1525.046213461878</v>
+        <v>827.1900426807604</v>
       </c>
       <c r="Y28" t="n">
-        <v>1304.253634318348</v>
+        <v>827.1900426807604</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6448,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F29" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6464,25 +6466,25 @@
         <v>276.3093906935953</v>
       </c>
       <c r="K29" t="n">
-        <v>597.7080858612028</v>
+        <v>918.6120443066559</v>
       </c>
       <c r="L29" t="n">
-        <v>1446.817951496195</v>
+        <v>1695.192234187565</v>
       </c>
       <c r="M29" t="n">
-        <v>2408.222828443783</v>
+        <v>2656.597111135153</v>
       </c>
       <c r="N29" t="n">
-        <v>3370.552243872424</v>
+        <v>3185.953071395928</v>
       </c>
       <c r="O29" t="n">
-        <v>4114.525067779331</v>
+        <v>4049.465812105078</v>
       </c>
       <c r="P29" t="n">
-        <v>4495.25810990396</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6546,19 +6548,19 @@
         <v>414.2869325418657</v>
       </c>
       <c r="L30" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M30" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N30" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O30" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P30" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q30" t="n">
         <v>2587.498588679581</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>824.575436493379</v>
+        <v>345.6200460840457</v>
       </c>
       <c r="C31" t="n">
-        <v>655.6392535654721</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="D31" t="n">
-        <v>655.6392535654721</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="E31" t="n">
-        <v>655.6392535654721</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="F31" t="n">
-        <v>508.7493060675617</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="G31" t="n">
-        <v>341.001780409306</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
@@ -6643,28 +6645,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S31" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.656398353472</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.656398353472</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.656398353472</v>
+        <v>863.0267670190236</v>
       </c>
       <c r="W31" t="n">
-        <v>1234.213452221636</v>
+        <v>573.6095969820631</v>
       </c>
       <c r="X31" t="n">
-        <v>1006.223901323619</v>
+        <v>345.6200460840457</v>
       </c>
       <c r="Y31" t="n">
-        <v>1006.223901323619</v>
+        <v>345.6200460840457</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6691,31 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H32" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I32" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K32" t="n">
-        <v>597.7080858612028</v>
+        <v>765.1137348815558</v>
       </c>
       <c r="L32" t="n">
-        <v>1446.817951496195</v>
+        <v>1614.223600516548</v>
       </c>
       <c r="M32" t="n">
-        <v>2408.222828443783</v>
+        <v>2575.628477464136</v>
       </c>
       <c r="N32" t="n">
-        <v>3370.552243872424</v>
+        <v>3104.984437724912</v>
       </c>
       <c r="O32" t="n">
-        <v>4114.525067779331</v>
+        <v>3795.944346689563</v>
       </c>
       <c r="P32" t="n">
         <v>4495.25810990396</v>
@@ -6795,10 +6797,10 @@
         <v>2062.146616470409</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q33" t="n">
-        <v>2587.498588679581</v>
+        <v>2545.817335043254</v>
       </c>
       <c r="R33" t="n">
         <v>2587.498588679581</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>341.001780409306</v>
+        <v>3552.238297702245</v>
       </c>
       <c r="C34" t="n">
-        <v>341.001780409306</v>
+        <v>3552.238297702245</v>
       </c>
       <c r="D34" t="n">
-        <v>341.001780409306</v>
+        <v>3429.774466072455</v>
       </c>
       <c r="E34" t="n">
-        <v>341.001780409306</v>
+        <v>3429.774466072455</v>
       </c>
       <c r="F34" t="n">
-        <v>341.001780409306</v>
+        <v>3282.884518574544</v>
       </c>
       <c r="G34" t="n">
-        <v>341.001780409306</v>
+        <v>3115.136992916289</v>
       </c>
       <c r="H34" t="n">
-        <v>194.3872674976251</v>
+        <v>2968.522480004608</v>
       </c>
       <c r="I34" t="n">
-        <v>95.71766921524075</v>
+        <v>2968.522480004608</v>
       </c>
       <c r="J34" t="n">
-        <v>137.7436613720288</v>
+        <v>3010.548472161396</v>
       </c>
       <c r="K34" t="n">
-        <v>336.6421130738838</v>
+        <v>3209.446923863251</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150413</v>
+        <v>3519.494898304409</v>
       </c>
       <c r="M34" t="n">
-        <v>983.9813277239496</v>
+        <v>3856.786138513317</v>
       </c>
       <c r="N34" t="n">
-        <v>1318.687152545533</v>
+        <v>4191.491963334901</v>
       </c>
       <c r="O34" t="n">
-        <v>1611.825859961355</v>
+        <v>4484.630670750722</v>
       </c>
       <c r="P34" t="n">
-        <v>1839.135983203279</v>
+        <v>4711.940793992646</v>
       </c>
       <c r="Q34" t="n">
-        <v>1913.078649972671</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R34" t="n">
-        <v>1913.078649972671</v>
+        <v>4694.043622091449</v>
       </c>
       <c r="S34" t="n">
-        <v>1720.613957833929</v>
+        <v>4694.043622091449</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.656398353472</v>
+        <v>4472.086062610992</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.551093895499</v>
+        <v>4472.086062610992</v>
       </c>
       <c r="V34" t="n">
-        <v>954.8666056896121</v>
+        <v>4472.086062610992</v>
       </c>
       <c r="W34" t="n">
-        <v>665.4494356526516</v>
+        <v>4182.668892574032</v>
       </c>
       <c r="X34" t="n">
-        <v>437.4598847546342</v>
+        <v>3954.679341676015</v>
       </c>
       <c r="Y34" t="n">
-        <v>341.001780409306</v>
+        <v>3733.886762532485</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C35" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
         <v>1652.105554591511</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993266</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036592</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H35" t="n">
         <v>141.5554198924156</v>
@@ -6938,22 +6940,22 @@
         <v>276.3093906935953</v>
       </c>
       <c r="K35" t="n">
-        <v>597.7080858612028</v>
+        <v>700.9497834735197</v>
       </c>
       <c r="L35" t="n">
-        <v>1446.817951496195</v>
+        <v>1550.059649108512</v>
       </c>
       <c r="M35" t="n">
-        <v>2408.222828443783</v>
+        <v>2511.4645260561</v>
       </c>
       <c r="N35" t="n">
-        <v>3370.552243872424</v>
+        <v>3040.820486316876</v>
       </c>
       <c r="O35" t="n">
-        <v>4114.525067779331</v>
+        <v>3904.333227026025</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.25810990396</v>
+        <v>4285.066269150654</v>
       </c>
       <c r="Q35" t="n">
         <v>4733.000021926294</v>
@@ -6968,19 +6970,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U35" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V35" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W35" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X35" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y35" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7019,19 @@
         <v>184.4590143936092</v>
       </c>
       <c r="K36" t="n">
-        <v>488.1430095111818</v>
+        <v>414.2869325418657</v>
       </c>
       <c r="L36" t="n">
-        <v>843.4975491433829</v>
+        <v>769.6414721740668</v>
       </c>
       <c r="M36" t="n">
-        <v>1277.536404075619</v>
+        <v>1203.680327106302</v>
       </c>
       <c r="N36" t="n">
-        <v>1737.471620890737</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O36" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P36" t="n">
         <v>2436.525948037006</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1122.605169488108</v>
+        <v>558.1583125527388</v>
       </c>
       <c r="C37" t="n">
-        <v>953.668986560201</v>
+        <v>389.222129624832</v>
       </c>
       <c r="D37" t="n">
-        <v>803.5523471478652</v>
+        <v>389.222129624832</v>
       </c>
       <c r="E37" t="n">
-        <v>655.6392535654721</v>
+        <v>389.222129624832</v>
       </c>
       <c r="F37" t="n">
-        <v>508.7493060675617</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="G37" t="n">
-        <v>341.001780409306</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H37" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
@@ -7117,28 +7119,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>1628.77411916334</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T37" t="n">
-        <v>1571.387299529655</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U37" t="n">
-        <v>1571.387299529655</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="V37" t="n">
-        <v>1571.387299529655</v>
+        <v>1147.331297828354</v>
       </c>
       <c r="W37" t="n">
-        <v>1571.387299529655</v>
+        <v>1006.940442594286</v>
       </c>
       <c r="X37" t="n">
-        <v>1343.397748631638</v>
+        <v>778.950891696269</v>
       </c>
       <c r="Y37" t="n">
-        <v>1122.605169488108</v>
+        <v>558.1583125527388</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7174,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K38" t="n">
-        <v>597.7080858612028</v>
+        <v>765.1137348815558</v>
       </c>
       <c r="L38" t="n">
-        <v>1446.817951496195</v>
+        <v>1614.223600516548</v>
       </c>
       <c r="M38" t="n">
-        <v>2408.222828443783</v>
+        <v>2130.610079306232</v>
       </c>
       <c r="N38" t="n">
-        <v>3370.552243872424</v>
+        <v>2659.966039567008</v>
       </c>
       <c r="O38" t="n">
-        <v>4114.525067779331</v>
+        <v>3523.478780276158</v>
       </c>
       <c r="P38" t="n">
-        <v>4495.25810990396</v>
+        <v>4222.792543490555</v>
       </c>
       <c r="Q38" t="n">
-        <v>4733.000021926294</v>
+        <v>4670.726296266194</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7269,7 +7271,7 @@
         <v>2062.146616470409</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q39" t="n">
         <v>2587.498588679581</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>245.8343086275765</v>
+        <v>3680.772507121309</v>
       </c>
       <c r="C40" t="n">
-        <v>245.8343086275765</v>
+        <v>3511.836324193402</v>
       </c>
       <c r="D40" t="n">
-        <v>95.71766921524075</v>
+        <v>3361.719684781066</v>
       </c>
       <c r="E40" t="n">
-        <v>95.71766921524075</v>
+        <v>3213.806591198673</v>
       </c>
       <c r="F40" t="n">
-        <v>95.71766921524075</v>
+        <v>3213.806591198673</v>
       </c>
       <c r="G40" t="n">
-        <v>95.71766921524075</v>
+        <v>3213.806591198673</v>
       </c>
       <c r="H40" t="n">
-        <v>95.71766921524075</v>
+        <v>3067.192078286992</v>
       </c>
       <c r="I40" t="n">
-        <v>95.71766921524075</v>
+        <v>2968.522480004608</v>
       </c>
       <c r="J40" t="n">
-        <v>137.7436613720288</v>
+        <v>3010.548472161396</v>
       </c>
       <c r="K40" t="n">
-        <v>336.6421130738838</v>
+        <v>3209.446923863251</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150413</v>
+        <v>3519.494898304409</v>
       </c>
       <c r="M40" t="n">
-        <v>983.9813277239496</v>
+        <v>3856.786138513317</v>
       </c>
       <c r="N40" t="n">
-        <v>1318.687152545533</v>
+        <v>4191.491963334901</v>
       </c>
       <c r="O40" t="n">
-        <v>1611.825859961355</v>
+        <v>4484.630670750722</v>
       </c>
       <c r="P40" t="n">
-        <v>1839.135983203279</v>
+        <v>4711.940793992646</v>
       </c>
       <c r="Q40" t="n">
-        <v>1913.078649972671</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R40" t="n">
-        <v>1913.078649972671</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S40" t="n">
-        <v>1720.613957833929</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="T40" t="n">
-        <v>1527.823401369945</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="U40" t="n">
-        <v>1238.718096911972</v>
+        <v>4496.778156304064</v>
       </c>
       <c r="V40" t="n">
-        <v>984.0336087060846</v>
+        <v>4496.778156304064</v>
       </c>
       <c r="W40" t="n">
-        <v>694.6164386691239</v>
+        <v>4207.360986267104</v>
       </c>
       <c r="X40" t="n">
-        <v>466.6268877711066</v>
+        <v>3979.371435369087</v>
       </c>
       <c r="Y40" t="n">
-        <v>245.8343086275765</v>
+        <v>3758.578856225557</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7393,40 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I41" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K41" t="n">
-        <v>597.7080858612028</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L41" t="n">
-        <v>1446.817951496195</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M41" t="n">
-        <v>2408.222828443783</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N41" t="n">
-        <v>3370.552243872424</v>
+        <v>2980.869998012461</v>
       </c>
       <c r="O41" t="n">
-        <v>4114.525067779331</v>
+        <v>3844.382738721611</v>
       </c>
       <c r="P41" t="n">
         <v>4495.25810990396</v>
@@ -7494,10 +7496,10 @@
         <v>414.2869325418657</v>
       </c>
       <c r="L42" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N42" t="n">
         <v>1737.471620890737</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1117.71125522491</v>
+        <v>3708.303685545622</v>
       </c>
       <c r="C43" t="n">
-        <v>953.668986560201</v>
+        <v>3539.367502617715</v>
       </c>
       <c r="D43" t="n">
-        <v>803.5523471478652</v>
+        <v>3529.742645025552</v>
       </c>
       <c r="E43" t="n">
-        <v>655.6392535654721</v>
+        <v>3381.829551443158</v>
       </c>
       <c r="F43" t="n">
-        <v>508.7493060675617</v>
+        <v>3234.939603945248</v>
       </c>
       <c r="G43" t="n">
-        <v>341.001780409306</v>
+        <v>3067.192078286992</v>
       </c>
       <c r="H43" t="n">
-        <v>194.3872674976251</v>
+        <v>3067.192078286992</v>
       </c>
       <c r="I43" t="n">
-        <v>95.71766921524075</v>
+        <v>2968.522480004608</v>
       </c>
       <c r="J43" t="n">
-        <v>137.7436613720288</v>
+        <v>3010.548472161396</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6421130738838</v>
+        <v>3209.446923863251</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150413</v>
+        <v>3519.494898304409</v>
       </c>
       <c r="M43" t="n">
-        <v>983.9813277239496</v>
+        <v>3856.786138513317</v>
       </c>
       <c r="N43" t="n">
-        <v>1318.687152545533</v>
+        <v>4191.491963334901</v>
       </c>
       <c r="O43" t="n">
-        <v>1611.825859961355</v>
+        <v>4484.630670750722</v>
       </c>
       <c r="P43" t="n">
-        <v>1839.135983203279</v>
+        <v>4711.940793992646</v>
       </c>
       <c r="Q43" t="n">
-        <v>1913.078649972671</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R43" t="n">
-        <v>1821.238811302082</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S43" t="n">
-        <v>1628.77411916334</v>
+        <v>4593.418768623295</v>
       </c>
       <c r="T43" t="n">
-        <v>1406.816559682884</v>
+        <v>4593.418768623295</v>
       </c>
       <c r="U43" t="n">
-        <v>1117.71125522491</v>
+        <v>4593.418768623295</v>
       </c>
       <c r="V43" t="n">
-        <v>1117.71125522491</v>
+        <v>4338.734280417409</v>
       </c>
       <c r="W43" t="n">
-        <v>1117.71125522491</v>
+        <v>4338.734280417409</v>
       </c>
       <c r="X43" t="n">
-        <v>1117.71125522491</v>
+        <v>4110.744729519392</v>
       </c>
       <c r="Y43" t="n">
-        <v>1117.71125522491</v>
+        <v>3889.952150375861</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7630,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E44" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F44" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H44" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I44" t="n">
         <v>95.71766921524075</v>
@@ -7652,22 +7654,22 @@
         <v>918.6120443066559</v>
       </c>
       <c r="L44" t="n">
-        <v>1354.237307536702</v>
+        <v>1767.721909941648</v>
       </c>
       <c r="M44" t="n">
-        <v>2071.843273574333</v>
+        <v>2403.075645719638</v>
       </c>
       <c r="N44" t="n">
-        <v>3034.172689002973</v>
+        <v>2932.431605980414</v>
       </c>
       <c r="O44" t="n">
-        <v>3520.693250262004</v>
+        <v>3795.944346689563</v>
       </c>
       <c r="P44" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3750.12586908341</v>
+        <v>448.2761120631359</v>
       </c>
       <c r="C46" t="n">
-        <v>3581.189686155503</v>
+        <v>279.339929135229</v>
       </c>
       <c r="D46" t="n">
-        <v>3431.073046743167</v>
+        <v>279.339929135229</v>
       </c>
       <c r="E46" t="n">
-        <v>3283.159953160774</v>
+        <v>131.4268355528359</v>
       </c>
       <c r="F46" t="n">
-        <v>3136.270005662864</v>
+        <v>131.4268355528359</v>
       </c>
       <c r="G46" t="n">
-        <v>2968.522480004608</v>
+        <v>131.4268355528359</v>
       </c>
       <c r="H46" t="n">
-        <v>2968.522480004608</v>
+        <v>131.4268355528359</v>
       </c>
       <c r="I46" t="n">
-        <v>2968.522480004608</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J46" t="n">
-        <v>3010.548472161396</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K46" t="n">
-        <v>3209.446923863251</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L46" t="n">
-        <v>3519.494898304409</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M46" t="n">
-        <v>3856.786138513317</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N46" t="n">
-        <v>4191.491963334901</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O46" t="n">
-        <v>4484.630670750722</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P46" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q46" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>4501.578929952707</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T46" t="n">
-        <v>4380.556463955197</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U46" t="n">
-        <v>4380.556463955197</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="V46" t="n">
-        <v>4380.556463955197</v>
+        <v>1147.331297828354</v>
       </c>
       <c r="W46" t="n">
-        <v>4380.556463955197</v>
+        <v>857.914127791393</v>
       </c>
       <c r="X46" t="n">
-        <v>4152.56691305718</v>
+        <v>629.9245768933756</v>
       </c>
       <c r="Y46" t="n">
-        <v>3931.77433391365</v>
+        <v>629.9245768933756</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,13 +8695,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>296.9138238411159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>316.5995337026488</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>74.60209794880376</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>3.419393410990523</v>
@@ -8927,13 +8929,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>328.7661427834971</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>4.620730212333569</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9018,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>74.60209794880399</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>74.60209794880467</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9161,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>231.197403968133</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>216.3242963030034</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>74.60209794880416</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>74.60209794880376</v>
       </c>
       <c r="R18" t="n">
         <v>3.419393410990523</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9410,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>120.1689464528341</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>207.1546195792598</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="L21" t="n">
-        <v>74.60209794880416</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>22.60020763746883</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9653,10 +9655,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>175.302300636879</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>74.60209794880421</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>74.60209794880416</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9878,25 +9880,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>424.017224593232</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>25.23975550835303</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>344.3989158089519</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>260.0527905534096</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>74.60209794880416</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>3.419393410990523</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10358,13 +10360,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>260.0527905534096</v>
+        <v>206.504391621838</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>32.49982154847365</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990523</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>104.2845430427444</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,16 +10597,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>260.0527905534096</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>74.60209794880421</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>74.60209794880376</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,22 +10831,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>260.0527905534096</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>62.90275319201922</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>74.60209794880376</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>3.419393410990523</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>260.0527905534096</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>272.8710394522427</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11142,13 +11144,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>74.60209794880416</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>74.60209794880416</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11300,25 +11302,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>203.2520073211582</v>
+        <v>120.1689464528339</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4187058021391</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23433,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>128.2187678798854</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>30.56033249899744</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>94.1410495627495</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>45.63380028269451</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2142514133935</v>
+        <v>200.062004195796</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>7.577237199610948</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
         <v>145.148367782564</v>
@@ -24175,10 +24177,10 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>7.600677363008515</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>97.91852515924575</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.3047476339124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>14.36789465003773</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>92.60218448506281</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>64.99183578107493</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.72448166607325</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>27.37627970472018</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>123.0911300502198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>162.925032448304</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>147.5360516548644</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>102.8036945687322</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>28.87533298630788</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>4.844975120565465</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>139.0868640019708</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956057</v>
+        <v>62.33082762534139</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
-        <v>99.9257425481171</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>696967.1128235891</v>
+        <v>696967.1128235892</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>696967.1128235891</v>
+        <v>696967.1128235892</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>696967.1128235891</v>
+        <v>696967.1128235892</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>696967.1128235891</v>
+        <v>696967.1128235892</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>696967.1128235894</v>
+        <v>696967.1128235891</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>696967.1128235892</v>
+        <v>696967.1128235891</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="E2" t="n">
-        <v>713716.7437146476</v>
+        <v>713716.7437146473</v>
       </c>
       <c r="F2" t="n">
         <v>713716.7437146473</v>
       </c>
       <c r="G2" t="n">
-        <v>713716.7437146476</v>
+        <v>713716.7437146474</v>
       </c>
       <c r="H2" t="n">
         <v>713716.7437146473</v>
       </c>
       <c r="I2" t="n">
-        <v>713716.7437146471</v>
+        <v>713716.7437146474</v>
       </c>
       <c r="J2" t="n">
         <v>713716.7437146475</v>
       </c>
       <c r="K2" t="n">
-        <v>713716.7437146475</v>
+        <v>713716.7437146473</v>
       </c>
       <c r="L2" t="n">
         <v>713716.7437146473</v>
       </c>
       <c r="M2" t="n">
-        <v>713716.7437146476</v>
+        <v>713716.7437146475</v>
       </c>
       <c r="N2" t="n">
-        <v>713716.7437146476</v>
+        <v>713716.7437146474</v>
       </c>
       <c r="O2" t="n">
-        <v>713716.7437146475</v>
+        <v>713716.7437146471</v>
       </c>
       <c r="P2" t="n">
-        <v>713716.7437146474</v>
+        <v>713716.7437146473</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
+        <v>23693.12563581168</v>
+      </c>
+      <c r="F4" t="n">
         <v>23693.12563581164</v>
       </c>
-      <c r="F4" t="n">
-        <v>23693.12563581165</v>
-      </c>
       <c r="G4" t="n">
+        <v>23693.12563581167</v>
+      </c>
+      <c r="H4" t="n">
         <v>23693.12563581164</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>23693.12563581163</v>
       </c>
-      <c r="I4" t="n">
-        <v>23693.12563581165</v>
-      </c>
       <c r="J4" t="n">
-        <v>23693.12563581163</v>
+        <v>23693.12563581164</v>
       </c>
       <c r="K4" t="n">
-        <v>23693.12563581163</v>
+        <v>23693.12563581164</v>
       </c>
       <c r="L4" t="n">
-        <v>23693.12563581163</v>
+        <v>23693.12563581164</v>
       </c>
       <c r="M4" t="n">
-        <v>23693.12563581168</v>
+        <v>23693.12563581164</v>
       </c>
       <c r="N4" t="n">
         <v>23693.12563581163</v>
       </c>
       <c r="O4" t="n">
-        <v>23693.12563581168</v>
+        <v>23693.12563581164</v>
       </c>
       <c r="P4" t="n">
-        <v>23693.12563581168</v>
+        <v>23693.12563581164</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="J5" t="n">
         <v>95967.71339206918</v>
@@ -26525,28 +26527,28 @@
         <v>463871.9184220155</v>
       </c>
       <c r="D6" t="n">
-        <v>463871.9184220155</v>
+        <v>463871.9184220156</v>
       </c>
       <c r="E6" t="n">
-        <v>-114195.1920650612</v>
+        <v>-114195.1920650616</v>
       </c>
       <c r="F6" t="n">
         <v>594055.9046867664</v>
       </c>
       <c r="G6" t="n">
-        <v>594055.9046867668</v>
+        <v>594055.9046867664</v>
       </c>
       <c r="H6" t="n">
         <v>594055.9046867664</v>
       </c>
       <c r="I6" t="n">
-        <v>594055.9046867663</v>
+        <v>594055.9046867666</v>
       </c>
       <c r="J6" t="n">
         <v>417632.6854941737</v>
       </c>
       <c r="K6" t="n">
-        <v>594055.9046867667</v>
+        <v>594055.9046867664</v>
       </c>
       <c r="L6" t="n">
         <v>594055.9046867664</v>
@@ -26555,10 +26557,10 @@
         <v>463925.6647173573</v>
       </c>
       <c r="N6" t="n">
-        <v>594055.9046867668</v>
+        <v>594055.9046867666</v>
       </c>
       <c r="O6" t="n">
-        <v>594055.9046867667</v>
+        <v>594055.9046867663</v>
       </c>
       <c r="P6" t="n">
         <v>594055.9046867664</v>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26796,19 +26798,19 @@
         <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1196.47086519051</v>
+        <v>1196.470865190509</v>
       </c>
       <c r="F4" t="n">
-        <v>1196.47086519051</v>
+        <v>1196.470865190509</v>
       </c>
       <c r="G4" t="n">
-        <v>1196.47086519051</v>
+        <v>1196.470865190509</v>
       </c>
       <c r="H4" t="n">
-        <v>1196.47086519051</v>
+        <v>1196.470865190509</v>
       </c>
       <c r="I4" t="n">
-        <v>1196.47086519051</v>
+        <v>1196.470865190509</v>
       </c>
       <c r="J4" t="n">
         <v>1196.470865190509</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.28277014520015</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>324.5186627799236</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>25.9232119256462</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>44.65327491702055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>127.8830122599993</v>
+        <v>6.126918103992182</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27825,13 +27827,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>96.68503059263386</v>
+        <v>215.0035407498214</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>216.6781365122825</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>191.3030072648505</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28059,25 +28061,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>117.5062691663786</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>4.910330425104632</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
     </row>
     <row r="18">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35255,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,13 +35415,13 @@
         <v>324.6451466339469</v>
       </c>
       <c r="L11" t="n">
-        <v>736.9393422553044</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M11" t="n">
         <v>971.1160373207957</v>
       </c>
       <c r="N11" t="n">
-        <v>972.049914574384</v>
+        <v>851.3025238650487</v>
       </c>
       <c r="O11" t="n">
         <v>872.2350916254037</v>
@@ -35504,10 +35506,10 @@
         <v>402.5566389383719</v>
       </c>
       <c r="P12" t="n">
-        <v>378.1609409763607</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051117</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L14" t="n">
         <v>857.686732964639</v>
       </c>
       <c r="M14" t="n">
-        <v>521.6025038279632</v>
+        <v>850.3686466114603</v>
       </c>
       <c r="N14" t="n">
         <v>972.049914574384</v>
@@ -35662,7 +35664,7 @@
         <v>872.2350916254037</v>
       </c>
       <c r="P14" t="n">
-        <v>389.1995606412517</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q14" t="n">
         <v>240.1433454771048</v>
@@ -35738,10 +35740,10 @@
         <v>464.5810270859779</v>
       </c>
       <c r="O15" t="n">
-        <v>477.1587368871758</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P15" t="n">
-        <v>303.558843027557</v>
+        <v>378.1609409763616</v>
       </c>
       <c r="Q15" t="n">
         <v>152.4976168106822</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K17" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L17" t="n">
-        <v>671.2229223823215</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M17" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N17" t="n">
         <v>972.049914574384</v>
       </c>
       <c r="O17" t="n">
-        <v>872.2350916254037</v>
+        <v>707.7592066656617</v>
       </c>
       <c r="P17" t="n">
         <v>384.5788304289181</v>
@@ -35905,7 +35907,7 @@
         <v>240.1433454771048</v>
       </c>
       <c r="R17" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>232.1494122709661</v>
       </c>
       <c r="L18" t="n">
-        <v>433.5460773752699</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M18" t="n">
         <v>438.423085790137</v>
@@ -35981,7 +35983,7 @@
         <v>303.558843027557</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K20" t="n">
         <v>648.7905592051117</v>
@@ -36130,19 +36132,19 @@
         <v>521.6025038279632</v>
       </c>
       <c r="N20" t="n">
-        <v>534.7029901623998</v>
+        <v>654.8719366152339</v>
       </c>
       <c r="O20" t="n">
         <v>872.2350916254037</v>
       </c>
       <c r="P20" t="n">
-        <v>591.7334500081779</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q20" t="n">
         <v>240.1433454771048</v>
       </c>
       <c r="R20" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,10 +36202,10 @@
         <v>89.63772240239237</v>
       </c>
       <c r="K21" t="n">
-        <v>232.1494122709661</v>
+        <v>306.7515102197707</v>
       </c>
       <c r="L21" t="n">
-        <v>433.5460773752699</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M21" t="n">
         <v>438.423085790137</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K23" t="n">
         <v>648.7905592051117</v>
       </c>
       <c r="L23" t="n">
-        <v>440.0255184141885</v>
+        <v>462.6257260516574</v>
       </c>
       <c r="M23" t="n">
         <v>971.1160373207957</v>
@@ -36373,10 +36375,10 @@
         <v>872.2350916254037</v>
       </c>
       <c r="P23" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q23" t="n">
-        <v>415.4456461139838</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R23" t="n">
         <v>119.1340348585825</v>
@@ -36437,7 +36439,7 @@
         <v>89.63772240239237</v>
       </c>
       <c r="K24" t="n">
-        <v>232.1494122709661</v>
+        <v>306.7515102197703</v>
       </c>
       <c r="L24" t="n">
         <v>358.9439794264658</v>
@@ -36446,7 +36448,7 @@
         <v>438.423085790137</v>
       </c>
       <c r="N24" t="n">
-        <v>539.1831250347821</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O24" t="n">
         <v>402.5566389383719</v>
@@ -36598,25 +36600,25 @@
         <v>324.6451466339469</v>
       </c>
       <c r="L26" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M26" t="n">
-        <v>971.1160373207957</v>
+        <v>945.6197284211952</v>
       </c>
       <c r="N26" t="n">
         <v>972.049914574384</v>
       </c>
       <c r="O26" t="n">
-        <v>516.6746658710114</v>
+        <v>491.4349103626583</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R26" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36832,19 +36834,19 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K29" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L29" t="n">
-        <v>857.686732964639</v>
+        <v>784.4244342231405</v>
       </c>
       <c r="M29" t="n">
         <v>971.1160373207957</v>
       </c>
       <c r="N29" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O29" t="n">
-        <v>751.487700916068</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P29" t="n">
         <v>384.5788304289181</v>
@@ -36853,7 +36855,7 @@
         <v>240.1433454771048</v>
       </c>
       <c r="R29" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>232.1494122709661</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9439794264658</v>
+        <v>433.5460773752699</v>
       </c>
       <c r="M30" t="n">
         <v>438.423085790137</v>
@@ -36929,7 +36931,7 @@
         <v>303.558843027557</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K32" t="n">
         <v>324.6451466339469</v>
@@ -37078,13 +37080,13 @@
         <v>971.1160373207957</v>
       </c>
       <c r="N32" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O32" t="n">
-        <v>751.487700916068</v>
+        <v>697.9393019844963</v>
       </c>
       <c r="P32" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q32" t="n">
         <v>240.1433454771048</v>
@@ -37163,13 +37165,13 @@
         <v>402.5566389383719</v>
       </c>
       <c r="P33" t="n">
-        <v>378.1609409763607</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.4976168106822</v>
+        <v>184.9974383591558</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>42.1022764003303</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K35" t="n">
-        <v>324.6451466339469</v>
+        <v>428.9296896766913</v>
       </c>
       <c r="L35" t="n">
         <v>857.686732964639</v>
@@ -37315,16 +37317,16 @@
         <v>971.1160373207957</v>
       </c>
       <c r="N35" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O35" t="n">
-        <v>751.487700916068</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P35" t="n">
         <v>384.5788304289181</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R35" t="n">
         <v>53.41761498560004</v>
@@ -37385,7 +37387,7 @@
         <v>89.63772240239237</v>
       </c>
       <c r="K36" t="n">
-        <v>306.7515102197703</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L36" t="n">
         <v>358.9439794264658</v>
@@ -37400,7 +37402,7 @@
         <v>402.5566389383719</v>
       </c>
       <c r="P36" t="n">
-        <v>303.558843027557</v>
+        <v>378.1609409763607</v>
       </c>
       <c r="Q36" t="n">
         <v>152.4976168106822</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K38" t="n">
         <v>324.6451466339469</v>
@@ -37549,22 +37551,22 @@
         <v>857.686732964639</v>
       </c>
       <c r="M38" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N38" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O38" t="n">
-        <v>751.487700916068</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P38" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R38" t="n">
-        <v>53.41761498560004</v>
+        <v>116.3203681776193</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,10 +37639,10 @@
         <v>402.5566389383719</v>
       </c>
       <c r="P39" t="n">
-        <v>378.1609409763607</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K41" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L41" t="n">
         <v>857.686732964639</v>
       </c>
       <c r="M41" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N41" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O41" t="n">
-        <v>751.487700916068</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289181</v>
+        <v>657.4498698811608</v>
       </c>
       <c r="Q41" t="n">
         <v>240.1433454771048</v>
@@ -37862,13 +37864,13 @@
         <v>232.1494122709661</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9439794264658</v>
+        <v>433.5460773752699</v>
       </c>
       <c r="M42" t="n">
         <v>438.423085790137</v>
       </c>
       <c r="N42" t="n">
-        <v>539.1831250347821</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O42" t="n">
         <v>402.5566389383719</v>
@@ -38020,25 +38022,25 @@
         <v>648.7905592051117</v>
       </c>
       <c r="L44" t="n">
-        <v>440.0255184141885</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M44" t="n">
-        <v>724.8545111491214</v>
+        <v>641.7714502807971</v>
       </c>
       <c r="N44" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O44" t="n">
-        <v>491.4349103626583</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P44" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q44" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R44" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3464737.076295604</v>
+        <v>3458892.941290474</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256412</v>
+        <v>6239134.533256413</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069185</v>
+        <v>840694.972106918</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>152.8484426051977</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>61.71927587612997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -797,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>141.3236091729816</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>233.6257157225927</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>407.6572519168028</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1037,7 +1037,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>71.27833349215638</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>60.52849267329247</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>215.5730384768609</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>129.1901879642572</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>281.6126679114864</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H11" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U11" t="n">
-        <v>251.003062380322</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>103.4083158511099</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>16.9295999026786</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T14" t="n">
         <v>204.3497241367009</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S16" t="n">
-        <v>96.39899565460472</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>135.2009709794781</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H17" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T17" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>28.81869974802212</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>86.15224721759745</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2137,7 +2137,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S22" t="n">
-        <v>182.9393678543457</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
         <v>286.2142514133935</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>74.696374955122</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.91345502269155</v>
+        <v>28.81869974802212</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>24.79898207516742</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>83.31500764952284</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>102.2549853175529</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673214</v>
       </c>
       <c r="T31" t="n">
         <v>219.7379838856521</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>121.2391933134922</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7379838856521</v>
+        <v>159.6461437356193</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040384</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U35" t="n">
         <v>251.0030623803221</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>159.6461437356193</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>138.9869466817266</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H38" t="n">
-        <v>295.6178616169272</v>
+        <v>295.617861616927</v>
       </c>
       <c r="I38" t="n">
         <v>45.37937317040314</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>77.02828561320511</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>130.4482050673214</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>9.528609016241521</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>140.0275755133922</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212043</v>
       </c>
       <c r="H44" t="n">
         <v>295.6178616169272</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>35.35207467421918</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>158.1593396068248</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1191.835263233623</v>
+        <v>1141.749745823171</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.835263233623</v>
+        <v>772.7872288827589</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>772.7872288827589</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>772.7872288827589</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>361.8013240931513</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y2" t="n">
-        <v>1578.435103297744</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4445,7 +4445,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1739.145928656049</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1370.183411715637</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1011.917713108887</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>626.1294605106427</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>619.1839597614393</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2125.745768720171</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2125.745768720171</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>2125.745768720171</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>428.8224802162921</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>428.8224802162921</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>428.8224802162921</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1760.906005007191</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C8" t="n">
-        <v>1760.906005007191</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D8" t="n">
-        <v>1402.64030640044</v>
+        <v>191.3836219274035</v>
       </c>
       <c r="E8" t="n">
-        <v>1016.852053802196</v>
+        <v>191.3836219274035</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>184.4381211782</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332392</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332392</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332392</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332392</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.505845071312</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>2147.505845071312</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4913,13 +4913,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207637</v>
@@ -4928,7 +4928,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>443.6717438918015</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H11" t="n">
         <v>141.5554198924156</v>
@@ -5041,16 +5041,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>276.3093906935953</v>
+        <v>280.8839136038042</v>
       </c>
       <c r="K11" t="n">
-        <v>597.7080858612028</v>
+        <v>923.1865672168648</v>
       </c>
       <c r="L11" t="n">
-        <v>1446.817951496195</v>
+        <v>1772.296432851857</v>
       </c>
       <c r="M11" t="n">
-        <v>2408.222828443783</v>
+        <v>2288.682911641541</v>
       </c>
       <c r="N11" t="n">
         <v>3251.012327070182</v>
@@ -5138,7 +5138,7 @@
         <v>2062.146616470409</v>
       </c>
       <c r="P12" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q12" t="n">
         <v>2587.498588679581</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>677.4306432980798</v>
+        <v>346.785026420972</v>
       </c>
       <c r="C13" t="n">
-        <v>508.4944603701729</v>
+        <v>346.785026420972</v>
       </c>
       <c r="D13" t="n">
-        <v>358.3778209578371</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="E13" t="n">
-        <v>358.3778209578371</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="F13" t="n">
-        <v>211.4878734599268</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="G13" t="n">
-        <v>211.4878734599268</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I13" t="n">
         <v>95.71766921524075</v>
@@ -5223,28 +5223,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="U13" t="n">
-        <v>1623.973345514697</v>
+        <v>1339.668814705367</v>
       </c>
       <c r="V13" t="n">
-        <v>1369.28885730881</v>
+        <v>1084.98432649948</v>
       </c>
       <c r="W13" t="n">
-        <v>1079.87168727185</v>
+        <v>795.5671564625195</v>
       </c>
       <c r="X13" t="n">
-        <v>1079.87168727185</v>
+        <v>567.5776055645022</v>
       </c>
       <c r="Y13" t="n">
-        <v>859.0791081283195</v>
+        <v>346.785026420972</v>
       </c>
     </row>
     <row r="14">
@@ -5263,16 +5263,16 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
@@ -5287,19 +5287,19 @@
         <v>1446.817951496195</v>
       </c>
       <c r="M14" t="n">
-        <v>2288.682911641541</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N14" t="n">
-        <v>3251.012327070182</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O14" t="n">
-        <v>4114.525067779331</v>
+        <v>3857.072805131455</v>
       </c>
       <c r="P14" t="n">
-        <v>4495.25810990396</v>
+        <v>4237.805847256084</v>
       </c>
       <c r="Q14" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5314,13 +5314,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V14" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3161.309648047117</v>
+        <v>962.9247759646606</v>
       </c>
       <c r="C15" t="n">
-        <v>2986.85661876599</v>
+        <v>788.4717466835336</v>
       </c>
       <c r="D15" t="n">
-        <v>2837.922209104739</v>
+        <v>639.5373370222824</v>
       </c>
       <c r="E15" t="n">
-        <v>2678.684754099283</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F15" t="n">
-        <v>2532.150196126168</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G15" t="n">
-        <v>2395.733791064222</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H15" t="n">
-        <v>2304.717083641436</v>
+        <v>106.3322115589798</v>
       </c>
       <c r="I15" t="n">
-        <v>2294.102541297696</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>2382.843886476065</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K15" t="n">
-        <v>2612.671804624321</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L15" t="n">
-        <v>2968.026344256522</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M15" t="n">
-        <v>3402.065199188758</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N15" t="n">
-        <v>3862.000416003876</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O15" t="n">
-        <v>4260.531488552864</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P15" t="n">
-        <v>4634.910820119462</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q15" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R15" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="S15" t="n">
-        <v>4655.455459218338</v>
+        <v>2457.070587135881</v>
       </c>
       <c r="T15" t="n">
-        <v>4462.597602764158</v>
+        <v>2264.212730681702</v>
       </c>
       <c r="U15" t="n">
-        <v>4234.526248997616</v>
+        <v>2036.14137691516</v>
       </c>
       <c r="V15" t="n">
-        <v>3999.374140765873</v>
+        <v>1800.989268683417</v>
       </c>
       <c r="W15" t="n">
-        <v>3745.136784037672</v>
+        <v>1546.751911955215</v>
       </c>
       <c r="X15" t="n">
-        <v>3537.285283832139</v>
+        <v>1338.900411749682</v>
       </c>
       <c r="Y15" t="n">
-        <v>3329.524985067185</v>
+        <v>1131.140112984729</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>509.0247406537912</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C16" t="n">
-        <v>509.0247406537912</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D16" t="n">
-        <v>509.0247406537912</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E16" t="n">
-        <v>509.0247406537912</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F16" t="n">
-        <v>362.1347931558809</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G16" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H16" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5463,25 +5463,25 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S16" t="n">
-        <v>1723.866088418643</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T16" t="n">
-        <v>1501.908528938186</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U16" t="n">
-        <v>1501.908528938186</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V16" t="n">
-        <v>1247.224040732299</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W16" t="n">
-        <v>957.8068706953387</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X16" t="n">
-        <v>729.8173197973214</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y16" t="n">
-        <v>509.0247406537912</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
         <v>1266.317301993267</v>
@@ -5515,28 +5515,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K17" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L17" t="n">
-        <v>1935.127558962002</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M17" t="n">
-        <v>2451.514037751685</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N17" t="n">
-        <v>3413.843453180326</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O17" t="n">
-        <v>4114.525067779331</v>
+        <v>3857.072805131455</v>
       </c>
       <c r="P17" t="n">
-        <v>4495.25810990396</v>
+        <v>4237.805847256084</v>
       </c>
       <c r="Q17" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R17" t="n">
         <v>4785.883460762037</v>
@@ -5551,13 +5551,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y17" t="n">
         <v>2765.933610202796</v>
@@ -5594,25 +5594,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K18" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L18" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M18" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O18" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P18" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q18" t="n">
         <v>2587.498588679581</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C19" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D19" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E19" t="n">
-        <v>655.6392535654721</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F19" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G19" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H19" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I19" t="n">
         <v>95.71766921524075</v>
@@ -5703,22 +5703,22 @@
         <v>1628.77411916334</v>
       </c>
       <c r="T19" t="n">
-        <v>1628.77411916334</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U19" t="n">
-        <v>1541.751647226373</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V19" t="n">
-        <v>1541.751647226373</v>
+        <v>863.0267670190236</v>
       </c>
       <c r="W19" t="n">
-        <v>1252.334477189413</v>
+        <v>573.6095969820631</v>
       </c>
       <c r="X19" t="n">
-        <v>1024.344926291395</v>
+        <v>345.6200460840457</v>
       </c>
       <c r="Y19" t="n">
-        <v>803.5523471478652</v>
+        <v>124.8274669405156</v>
       </c>
     </row>
     <row r="20">
@@ -5755,19 +5755,19 @@
         <v>276.3093906935953</v>
       </c>
       <c r="K20" t="n">
-        <v>918.6120443066559</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L20" t="n">
-        <v>1767.721909941648</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M20" t="n">
-        <v>2284.108388731332</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N20" t="n">
-        <v>2932.431605980414</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O20" t="n">
-        <v>3795.944346689563</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P20" t="n">
         <v>4495.25810990396</v>
@@ -5788,13 +5788,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y20" t="n">
         <v>2765.933610202796</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3161.309648047117</v>
+        <v>962.9247759646606</v>
       </c>
       <c r="C21" t="n">
-        <v>2986.85661876599</v>
+        <v>788.4717466835336</v>
       </c>
       <c r="D21" t="n">
-        <v>2837.922209104739</v>
+        <v>639.5373370222824</v>
       </c>
       <c r="E21" t="n">
-        <v>2678.684754099283</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F21" t="n">
-        <v>2532.150196126168</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G21" t="n">
-        <v>2395.733791064222</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H21" t="n">
-        <v>2304.717083641436</v>
+        <v>106.3322115589798</v>
       </c>
       <c r="I21" t="n">
-        <v>2294.102541297696</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>2382.843886476065</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K21" t="n">
-        <v>2686.527881593638</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L21" t="n">
-        <v>3041.882421225839</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M21" t="n">
-        <v>3475.921276158075</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N21" t="n">
-        <v>3935.856492973193</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O21" t="n">
-        <v>4334.387565522181</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P21" t="n">
-        <v>4634.910820119462</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q21" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R21" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="S21" t="n">
-        <v>4655.455459218338</v>
+        <v>2457.070587135881</v>
       </c>
       <c r="T21" t="n">
-        <v>4462.597602764158</v>
+        <v>2264.212730681702</v>
       </c>
       <c r="U21" t="n">
-        <v>4234.526248997616</v>
+        <v>2036.14137691516</v>
       </c>
       <c r="V21" t="n">
-        <v>3999.374140765873</v>
+        <v>1800.989268683417</v>
       </c>
       <c r="W21" t="n">
-        <v>3745.136784037672</v>
+        <v>1546.751911955215</v>
       </c>
       <c r="X21" t="n">
-        <v>3537.285283832139</v>
+        <v>1338.900411749682</v>
       </c>
       <c r="Y21" t="n">
-        <v>3329.524985067185</v>
+        <v>1131.140112984729</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.6538521431477</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C22" t="n">
         <v>95.71766921524075</v>
@@ -5934,28 +5934,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S22" t="n">
-        <v>1728.291409715756</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T22" t="n">
-        <v>1728.291409715756</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.186105257782</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V22" t="n">
-        <v>1184.501617051895</v>
+        <v>863.0267670190236</v>
       </c>
       <c r="W22" t="n">
-        <v>895.0844470149349</v>
+        <v>573.6095969820631</v>
       </c>
       <c r="X22" t="n">
-        <v>667.0948961169175</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y22" t="n">
-        <v>446.3023169733874</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="23">
@@ -5974,7 +5974,7 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F23" t="n">
         <v>855.3313972036599</v>
@@ -5983,34 +5983,34 @@
         <v>440.1593205155744</v>
       </c>
       <c r="H23" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I23" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K23" t="n">
-        <v>918.6120443066559</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L23" t="n">
-        <v>1376.611513097797</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M23" t="n">
-        <v>2338.016390045384</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N23" t="n">
-        <v>2867.372350306161</v>
+        <v>2980.869998012461</v>
       </c>
       <c r="O23" t="n">
-        <v>3730.88509101531</v>
+        <v>3844.382738721611</v>
       </c>
       <c r="P23" t="n">
-        <v>4430.198854229707</v>
+        <v>4285.066269150654</v>
       </c>
       <c r="Q23" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6025,13 +6025,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y23" t="n">
         <v>2765.933610202796</v>
@@ -6068,7 +6068,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K24" t="n">
         <v>488.1430095111818</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>559.1814586372216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C25" t="n">
-        <v>390.2452757093147</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D25" t="n">
-        <v>390.2452757093147</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E25" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F25" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G25" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H25" t="n">
         <v>95.71766921524075</v>
@@ -6180,19 +6180,19 @@
         <v>1406.816559682884</v>
       </c>
       <c r="U25" t="n">
-        <v>1406.816559682884</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V25" t="n">
-        <v>1152.132071476997</v>
+        <v>863.0267670190236</v>
       </c>
       <c r="W25" t="n">
-        <v>862.7149014400361</v>
+        <v>573.6095969820631</v>
       </c>
       <c r="X25" t="n">
-        <v>862.7149014400361</v>
+        <v>345.6200460840457</v>
       </c>
       <c r="Y25" t="n">
-        <v>641.922322296506</v>
+        <v>124.8274669405156</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G26" t="n">
         <v>440.1593205155744</v>
@@ -6223,31 +6223,31 @@
         <v>141.5554198924156</v>
       </c>
       <c r="I26" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J26" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K26" t="n">
-        <v>765.1137348815558</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L26" t="n">
-        <v>1200.738998111603</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M26" t="n">
-        <v>2136.902529248586</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N26" t="n">
-        <v>3099.231944677226</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O26" t="n">
-        <v>3585.752505936257</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P26" t="n">
-        <v>4285.066269150654</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q26" t="n">
-        <v>4733.000021926294</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6256,22 +6256,22 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T26" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902181</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V26" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="27">
@@ -6302,10 +6302,10 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I27" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J27" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K27" t="n">
         <v>488.1430095111818</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>645.5415778505206</v>
+        <v>289.7033289867511</v>
       </c>
       <c r="C28" t="n">
-        <v>476.6053949226138</v>
+        <v>120.7671460588442</v>
       </c>
       <c r="D28" t="n">
-        <v>326.488755510278</v>
+        <v>120.7671460588442</v>
       </c>
       <c r="E28" t="n">
-        <v>326.488755510278</v>
+        <v>120.7671460588442</v>
       </c>
       <c r="F28" t="n">
-        <v>326.488755510278</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="G28" t="n">
-        <v>326.488755510278</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="H28" t="n">
-        <v>179.8742425985972</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="I28" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J28" t="n">
         <v>137.7436613720288</v>
@@ -6408,28 +6408,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>1821.238811302082</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T28" t="n">
-        <v>1599.281251821625</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U28" t="n">
-        <v>1599.281251821625</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V28" t="n">
-        <v>1344.596763615738</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="W28" t="n">
-        <v>1055.179593578778</v>
+        <v>920.1339238585383</v>
       </c>
       <c r="X28" t="n">
-        <v>827.1900426807604</v>
+        <v>692.144372960521</v>
       </c>
       <c r="Y28" t="n">
-        <v>827.1900426807604</v>
+        <v>471.3517938169908</v>
       </c>
     </row>
     <row r="29">
@@ -6448,7 +6448,7 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F29" t="n">
         <v>855.3313972036599</v>
@@ -6457,7 +6457,7 @@
         <v>440.1593205155744</v>
       </c>
       <c r="H29" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I29" t="n">
         <v>95.71766921524075</v>
@@ -6466,25 +6466,25 @@
         <v>276.3093906935953</v>
       </c>
       <c r="K29" t="n">
-        <v>918.6120443066559</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L29" t="n">
-        <v>1695.192234187565</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M29" t="n">
-        <v>2656.597111135153</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N29" t="n">
-        <v>3185.953071395928</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O29" t="n">
-        <v>4049.465812105078</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P29" t="n">
-        <v>4430.198854229707</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q29" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6542,10 +6542,10 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K30" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L30" t="n">
         <v>843.4975491433829</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>345.6200460840457</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C31" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D31" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E31" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F31" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G31" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H31" t="n">
         <v>95.71766921524075</v>
@@ -6645,28 +6645,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.77411916334</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.816559682884</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U31" t="n">
-        <v>1117.71125522491</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V31" t="n">
-        <v>863.0267670190236</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W31" t="n">
-        <v>573.6095969820631</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X31" t="n">
-        <v>345.6200460840457</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y31" t="n">
-        <v>345.6200460840457</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>443.7150397139484</v>
       </c>
       <c r="K32" t="n">
-        <v>765.1137348815558</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.223600516548</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M32" t="n">
-        <v>2575.628477464136</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N32" t="n">
-        <v>3104.984437724912</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O32" t="n">
-        <v>3795.944346689563</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P32" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q32" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6779,28 +6779,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K33" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L33" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M33" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N33" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O33" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P33" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q33" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R33" t="n">
         <v>2587.498588679581</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3552.238297702245</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C34" t="n">
-        <v>3552.238297702245</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D34" t="n">
-        <v>3429.774466072455</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E34" t="n">
-        <v>3429.774466072455</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F34" t="n">
-        <v>3282.884518574544</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G34" t="n">
-        <v>3115.136992916289</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H34" t="n">
-        <v>2968.522480004608</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I34" t="n">
-        <v>2968.522480004608</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J34" t="n">
-        <v>3010.548472161396</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K34" t="n">
-        <v>3209.446923863251</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L34" t="n">
-        <v>3519.494898304409</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M34" t="n">
-        <v>3856.786138513317</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N34" t="n">
-        <v>4191.491963334901</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O34" t="n">
-        <v>4484.630670750722</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P34" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q34" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>4694.043622091449</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T34" t="n">
-        <v>4472.086062610992</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U34" t="n">
-        <v>4472.086062610992</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V34" t="n">
-        <v>4472.086062610992</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W34" t="n">
-        <v>4182.668892574032</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X34" t="n">
-        <v>3954.679341676015</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y34" t="n">
-        <v>3733.886762532485</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="35">
@@ -6916,49 +6916,49 @@
         <v>2379.333770138674</v>
       </c>
       <c r="C35" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198263</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036608</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155751</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924164</v>
       </c>
       <c r="I35" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K35" t="n">
-        <v>700.9497834735197</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1550.059649108512</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M35" t="n">
-        <v>2511.4645260561</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N35" t="n">
-        <v>3040.820486316876</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O35" t="n">
-        <v>3904.333227026025</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P35" t="n">
-        <v>4285.066269150654</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -7016,22 +7016,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K36" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L36" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M36" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N36" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O36" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P36" t="n">
         <v>2436.525948037006</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>558.1583125527388</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C37" t="n">
-        <v>389.222129624832</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D37" t="n">
-        <v>389.222129624832</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E37" t="n">
-        <v>389.222129624832</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F37" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G37" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H37" t="n">
         <v>95.71766921524075</v>
@@ -7122,25 +7122,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T37" t="n">
-        <v>1691.121090492214</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U37" t="n">
-        <v>1402.015786034241</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V37" t="n">
-        <v>1147.331297828354</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W37" t="n">
-        <v>1006.940442594286</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X37" t="n">
-        <v>778.950891696269</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y37" t="n">
-        <v>558.1583125527388</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7177,25 +7177,25 @@
         <v>443.7150397139484</v>
       </c>
       <c r="K38" t="n">
-        <v>765.1137348815558</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L38" t="n">
-        <v>1614.223600516548</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M38" t="n">
-        <v>2130.610079306232</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N38" t="n">
-        <v>2659.966039567008</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O38" t="n">
-        <v>3523.478780276158</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P38" t="n">
-        <v>4222.792543490555</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q38" t="n">
-        <v>4670.726296266194</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7253,25 +7253,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K39" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L39" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M39" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O39" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P39" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q39" t="n">
         <v>2587.498588679581</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3680.772507121309</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C40" t="n">
-        <v>3511.836324193402</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D40" t="n">
-        <v>3361.719684781066</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E40" t="n">
-        <v>3213.806591198673</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F40" t="n">
-        <v>3213.806591198673</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G40" t="n">
-        <v>3213.806591198673</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H40" t="n">
-        <v>3067.192078286992</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I40" t="n">
-        <v>2968.522480004608</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J40" t="n">
-        <v>3010.548472161396</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K40" t="n">
-        <v>3209.446923863251</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L40" t="n">
-        <v>3519.494898304409</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M40" t="n">
-        <v>3856.786138513317</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N40" t="n">
-        <v>4191.491963334901</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O40" t="n">
-        <v>4484.630670750722</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P40" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q40" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>4785.883460762037</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T40" t="n">
-        <v>4785.883460762037</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U40" t="n">
-        <v>4496.778156304064</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V40" t="n">
-        <v>4496.778156304064</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W40" t="n">
-        <v>4207.360986267104</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X40" t="n">
-        <v>3979.371435369087</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y40" t="n">
-        <v>3758.578856225557</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="41">
@@ -7405,34 +7405,34 @@
         <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I41" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K41" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066559</v>
       </c>
       <c r="L41" t="n">
-        <v>1935.127558962002</v>
+        <v>1767.721909941648</v>
       </c>
       <c r="M41" t="n">
-        <v>2451.514037751685</v>
+        <v>2284.108388731332</v>
       </c>
       <c r="N41" t="n">
-        <v>2980.869998012461</v>
+        <v>2813.464348992108</v>
       </c>
       <c r="O41" t="n">
-        <v>3844.382738721611</v>
+        <v>3676.977089701258</v>
       </c>
       <c r="P41" t="n">
-        <v>4495.25810990396</v>
+        <v>4376.290852915655</v>
       </c>
       <c r="Q41" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7490,10 +7490,10 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K42" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L42" t="n">
         <v>843.4975491433829</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3708.303685545622</v>
+        <v>704.1255806059494</v>
       </c>
       <c r="C43" t="n">
-        <v>3539.367502617715</v>
+        <v>535.1893976780425</v>
       </c>
       <c r="D43" t="n">
-        <v>3529.742645025552</v>
+        <v>385.0727582657067</v>
       </c>
       <c r="E43" t="n">
-        <v>3381.829551443158</v>
+        <v>237.1596646833136</v>
       </c>
       <c r="F43" t="n">
-        <v>3234.939603945248</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G43" t="n">
-        <v>3067.192078286992</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H43" t="n">
-        <v>3067.192078286992</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I43" t="n">
-        <v>2968.522480004608</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J43" t="n">
-        <v>3010.548472161396</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>3209.446923863251</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L43" t="n">
-        <v>3519.494898304409</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M43" t="n">
-        <v>3856.786138513317</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N43" t="n">
-        <v>4191.491963334901</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O43" t="n">
-        <v>4484.630670750722</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P43" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q43" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>4593.418768623295</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T43" t="n">
-        <v>4593.418768623295</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U43" t="n">
-        <v>4593.418768623295</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V43" t="n">
-        <v>4338.734280417409</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="W43" t="n">
-        <v>4338.734280417409</v>
+        <v>1334.556175477737</v>
       </c>
       <c r="X43" t="n">
-        <v>4110.744729519392</v>
+        <v>1106.566624579719</v>
       </c>
       <c r="Y43" t="n">
-        <v>3889.952150375861</v>
+        <v>885.7740454361891</v>
       </c>
     </row>
     <row r="44">
@@ -7630,16 +7630,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E44" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F44" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H44" t="n">
         <v>141.5554198924156</v>
@@ -7648,28 +7648,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K44" t="n">
-        <v>918.6120443066559</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L44" t="n">
-        <v>1767.721909941648</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M44" t="n">
-        <v>2403.075645719638</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N44" t="n">
-        <v>2932.431605980414</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O44" t="n">
-        <v>3795.944346689563</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P44" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q44" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7727,7 +7727,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K45" t="n">
         <v>488.1430095111818</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>448.2761120631359</v>
+        <v>806.7790390622906</v>
       </c>
       <c r="C46" t="n">
-        <v>279.339929135229</v>
+        <v>806.7790390622906</v>
       </c>
       <c r="D46" t="n">
-        <v>279.339929135229</v>
+        <v>656.6623996499549</v>
       </c>
       <c r="E46" t="n">
-        <v>131.4268355528359</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F46" t="n">
-        <v>131.4268355528359</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G46" t="n">
-        <v>131.4268355528359</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H46" t="n">
-        <v>131.4268355528359</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I46" t="n">
         <v>95.71766921524075</v>
@@ -7836,22 +7836,22 @@
         <v>1913.078649972671</v>
       </c>
       <c r="T46" t="n">
-        <v>1691.121090492214</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U46" t="n">
-        <v>1402.015786034241</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="V46" t="n">
-        <v>1147.331297828354</v>
+        <v>1658.394161766784</v>
       </c>
       <c r="W46" t="n">
-        <v>857.914127791393</v>
+        <v>1368.976991729823</v>
       </c>
       <c r="X46" t="n">
-        <v>629.9245768933756</v>
+        <v>1209.22008303606</v>
       </c>
       <c r="Y46" t="n">
-        <v>629.9245768933756</v>
+        <v>988.4275038925304</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4.620730212332205</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>316.5995337026488</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>74.60209794880376</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>3.419393410990523</v>
@@ -8935,22 +8935,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>328.7661427834971</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>194.3363706804271</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>74.60209794880467</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>216.3242963030034</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>194.3363706804271</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>3.419393410990523</v>
@@ -9403,22 +9403,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>120.1689464528341</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534096</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K21" t="n">
-        <v>74.60209794880461</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>22.60020763746883</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>60.55604879233789</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K24" t="n">
-        <v>74.60209794880421</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>424.017224593232</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>260.0527905534087</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K27" t="n">
-        <v>74.60209794880421</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>344.3989158089519</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534096</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>74.60209794880416</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>90.7021352983229</v>
       </c>
       <c r="O32" t="n">
-        <v>206.504391621838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.49982154847365</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>104.2845430427444</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>90.7021352983229</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>90.7021352983229</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>62.90275319201922</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>3.419393410990523</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11077,13 +11077,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>272.8710394522427</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>54.45252657985068</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>74.60209794880416</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>120.1689464528339</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>90.7021352983229</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11317,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K45" t="n">
-        <v>74.60209794880421</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>45.20715716710241</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>128.2187678798854</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.7379838856521</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>94.1410495627495</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2142514133935</v>
+        <v>151.0132804339154</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>151.0132804339152</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>200.062004195796</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>7.600677363008515</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>151.0132804339152</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.91852515924575</v>
+        <v>151.0132804339152</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
         <v>97.68290229956057</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6220659477638</v>
       </c>
       <c r="G28" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>14.36789465003773</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>64.99183578107493</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
         <v>97.68290229956057</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>60.09184015003279</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>27.37627970472018</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
         <v>97.68290229956057</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>60.09184015003282</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
         <v>97.68290229956057</v>
@@ -25362,10 +25362,10 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>60.09184015003282</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>147.5360516548644</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.8036945687322</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003279</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>139.0868640019708</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>5.393472509539095</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.33082762534139</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>67.55031578221238</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>696967.1128235892</v>
+        <v>696967.1128235894</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>696967.1128235892</v>
+        <v>696967.1128235891</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>696967.1128235892</v>
+        <v>696967.1128235891</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>696967.1128235892</v>
+        <v>696967.1128235891</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>696967.1128235892</v>
+        <v>696967.1128235891</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>696967.1128235892</v>
+        <v>696967.1128235891</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>696967.1128235892</v>
+        <v>696967.1128235891</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>696967.1128235891</v>
+        <v>696967.1128235892</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="E2" t="n">
         <v>713716.7437146473</v>
       </c>
       <c r="F2" t="n">
-        <v>713716.7437146473</v>
+        <v>713716.7437146476</v>
       </c>
       <c r="G2" t="n">
         <v>713716.7437146474</v>
       </c>
       <c r="H2" t="n">
-        <v>713716.7437146473</v>
+        <v>713716.7437146475</v>
       </c>
       <c r="I2" t="n">
         <v>713716.7437146474</v>
@@ -26343,16 +26343,16 @@
         <v>713716.7437146473</v>
       </c>
       <c r="L2" t="n">
+        <v>713716.7437146474</v>
+      </c>
+      <c r="M2" t="n">
         <v>713716.7437146473</v>
       </c>
-      <c r="M2" t="n">
-        <v>713716.7437146475</v>
-      </c>
       <c r="N2" t="n">
-        <v>713716.7437146474</v>
+        <v>713716.7437146471</v>
       </c>
       <c r="O2" t="n">
-        <v>713716.7437146471</v>
+        <v>713716.7437146473</v>
       </c>
       <c r="P2" t="n">
         <v>713716.7437146473</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.096751828</v>
+        <v>708251.0967518281</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>23693.12563581168</v>
+        <v>23693.12563581164</v>
       </c>
       <c r="F4" t="n">
         <v>23693.12563581164</v>
       </c>
       <c r="G4" t="n">
-        <v>23693.12563581167</v>
+        <v>23693.12563581164</v>
       </c>
       <c r="H4" t="n">
         <v>23693.12563581164</v>
       </c>
       <c r="I4" t="n">
+        <v>23693.12563581164</v>
+      </c>
+      <c r="J4" t="n">
         <v>23693.12563581163</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23693.12563581164</v>
       </c>
       <c r="K4" t="n">
         <v>23693.12563581164</v>
@@ -26453,10 +26453,10 @@
         <v>23693.12563581164</v>
       </c>
       <c r="N4" t="n">
+        <v>23693.12563581164</v>
+      </c>
+      <c r="O4" t="n">
         <v>23693.12563581163</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23693.12563581164</v>
       </c>
       <c r="P4" t="n">
         <v>23693.12563581164</v>
@@ -26493,7 +26493,7 @@
         <v>95967.71339206918</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.71339206917</v>
       </c>
       <c r="K5" t="n">
         <v>95967.71339206918</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126095.960792529</v>
+        <v>-126095.9607925289</v>
       </c>
       <c r="C6" t="n">
-        <v>463871.9184220155</v>
+        <v>463871.9184220153</v>
       </c>
       <c r="D6" t="n">
-        <v>463871.9184220156</v>
+        <v>463871.9184220153</v>
       </c>
       <c r="E6" t="n">
-        <v>-114195.1920650616</v>
+        <v>-114895.7712084841</v>
       </c>
       <c r="F6" t="n">
-        <v>594055.9046867664</v>
+        <v>593355.3255433444</v>
       </c>
       <c r="G6" t="n">
-        <v>594055.9046867664</v>
+        <v>593355.3255433441</v>
       </c>
       <c r="H6" t="n">
-        <v>594055.9046867664</v>
+        <v>593355.3255433443</v>
       </c>
       <c r="I6" t="n">
-        <v>594055.9046867666</v>
+        <v>593355.3255433441</v>
       </c>
       <c r="J6" t="n">
-        <v>417632.6854941737</v>
+        <v>416932.1063507514</v>
       </c>
       <c r="K6" t="n">
-        <v>594055.9046867664</v>
+        <v>593355.325543344</v>
       </c>
       <c r="L6" t="n">
-        <v>594055.9046867664</v>
+        <v>593355.3255433441</v>
       </c>
       <c r="M6" t="n">
-        <v>463925.6647173573</v>
+        <v>463225.0855739346</v>
       </c>
       <c r="N6" t="n">
-        <v>594055.9046867666</v>
+        <v>593355.3255433439</v>
       </c>
       <c r="O6" t="n">
-        <v>594055.9046867663</v>
+        <v>593355.325543344</v>
       </c>
       <c r="P6" t="n">
-        <v>594055.9046867664</v>
+        <v>593355.325543344</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1196.470865190509</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731068</v>
+        <v>687.4987572731069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>260.9357274155973</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>324.5186627799236</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>25.9232119256462</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047541</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>149.1081259408879</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6.126918103992182</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27830,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>215.0035407498214</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>158.0561606788023</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>191.3030072648505</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>284.5939820565378</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>4.910330425104632</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>182.4158802811663</v>
+        <v>187.0366104934985</v>
       </c>
       <c r="K11" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L11" t="n">
         <v>857.686732964639</v>
       </c>
       <c r="M11" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N11" t="n">
-        <v>851.3025238650487</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O11" t="n">
         <v>872.2350916254037</v>
@@ -35506,10 +35506,10 @@
         <v>402.5566389383719</v>
       </c>
       <c r="P12" t="n">
-        <v>303.558843027557</v>
+        <v>378.1609409763607</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,22 +35655,22 @@
         <v>857.686732964639</v>
       </c>
       <c r="M14" t="n">
-        <v>850.3686466114603</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N14" t="n">
         <v>972.049914574384</v>
       </c>
       <c r="O14" t="n">
-        <v>872.2350916254037</v>
+        <v>491.4349103626583</v>
       </c>
       <c r="P14" t="n">
         <v>384.5788304289181</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.1433454771048</v>
+        <v>434.4797161575318</v>
       </c>
       <c r="R14" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K15" t="n">
         <v>232.1494122709661</v>
@@ -35743,7 +35743,7 @@
         <v>402.5566389383719</v>
       </c>
       <c r="P15" t="n">
-        <v>378.1609409763616</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q15" t="n">
         <v>152.4976168106822</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K17" t="n">
-        <v>648.7905592051117</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L17" t="n">
         <v>857.686732964639</v>
       </c>
       <c r="M17" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N17" t="n">
         <v>972.049914574384</v>
       </c>
       <c r="O17" t="n">
-        <v>707.7592066656617</v>
+        <v>491.4349103626583</v>
       </c>
       <c r="P17" t="n">
         <v>384.5788304289181</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.1433454771048</v>
+        <v>434.4797161575318</v>
       </c>
       <c r="R17" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K18" t="n">
         <v>232.1494122709661</v>
@@ -35983,7 +35983,7 @@
         <v>303.558843027557</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K20" t="n">
-        <v>648.7905592051117</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L20" t="n">
         <v>857.686732964639</v>
       </c>
       <c r="M20" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N20" t="n">
-        <v>654.8719366152339</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O20" t="n">
-        <v>872.2350916254037</v>
+        <v>751.487700916068</v>
       </c>
       <c r="P20" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q20" t="n">
         <v>240.1433454771048</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K21" t="n">
-        <v>306.7515102197707</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L21" t="n">
         <v>358.9439794264658</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K23" t="n">
         <v>648.7905592051117</v>
       </c>
       <c r="L23" t="n">
-        <v>462.6257260516574</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M23" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N23" t="n">
         <v>534.7029901623998</v>
@@ -36375,13 +36375,13 @@
         <v>872.2350916254037</v>
       </c>
       <c r="P23" t="n">
-        <v>706.3775386004008</v>
+        <v>445.134879221256</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R23" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K24" t="n">
-        <v>306.7515102197703</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L24" t="n">
         <v>358.9439794264658</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K26" t="n">
         <v>324.6451466339469</v>
       </c>
       <c r="L26" t="n">
-        <v>440.0255184141885</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M26" t="n">
-        <v>945.6197284211952</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N26" t="n">
         <v>972.049914574384</v>
       </c>
       <c r="O26" t="n">
-        <v>491.4349103626583</v>
+        <v>751.4877009160671</v>
       </c>
       <c r="P26" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q26" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R26" t="n">
         <v>53.41761498560004</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K27" t="n">
-        <v>306.7515102197703</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L27" t="n">
         <v>358.9439794264658</v>
@@ -36834,19 +36834,19 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K29" t="n">
-        <v>648.7905592051117</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L29" t="n">
-        <v>784.4244342231405</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M29" t="n">
         <v>971.1160373207957</v>
       </c>
       <c r="N29" t="n">
-        <v>534.7029901623998</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O29" t="n">
-        <v>872.2350916254037</v>
+        <v>751.487700916068</v>
       </c>
       <c r="P29" t="n">
         <v>384.5788304289181</v>
@@ -36855,7 +36855,7 @@
         <v>240.1433454771048</v>
       </c>
       <c r="R29" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K30" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L30" t="n">
-        <v>433.5460773752699</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M30" t="n">
         <v>438.423085790137</v>
@@ -37071,28 +37071,28 @@
         <v>351.51249545324</v>
       </c>
       <c r="K32" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L32" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M32" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N32" t="n">
-        <v>534.7029901623998</v>
+        <v>625.4051254607227</v>
       </c>
       <c r="O32" t="n">
-        <v>697.9393019844963</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P32" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R32" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K33" t="n">
         <v>232.1494122709661</v>
@@ -37168,10 +37168,10 @@
         <v>303.558843027557</v>
       </c>
       <c r="Q33" t="n">
-        <v>184.9974383591558</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R33" t="n">
-        <v>42.1022764003303</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K35" t="n">
-        <v>428.9296896766913</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L35" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N35" t="n">
-        <v>534.7029901623998</v>
+        <v>625.4051254607227</v>
       </c>
       <c r="O35" t="n">
         <v>872.2350916254037</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q35" t="n">
         <v>452.4583361370094</v>
       </c>
       <c r="R35" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K36" t="n">
         <v>232.1494122709661</v>
@@ -37402,7 +37402,7 @@
         <v>402.5566389383719</v>
       </c>
       <c r="P36" t="n">
-        <v>378.1609409763607</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q36" t="n">
         <v>152.4976168106822</v>
@@ -37545,16 +37545,16 @@
         <v>351.51249545324</v>
       </c>
       <c r="K38" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L38" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M38" t="n">
         <v>521.6025038279632</v>
       </c>
       <c r="N38" t="n">
-        <v>534.7029901623998</v>
+        <v>625.4051254607227</v>
       </c>
       <c r="O38" t="n">
         <v>872.2350916254037</v>
@@ -37566,7 +37566,7 @@
         <v>452.4583361370094</v>
       </c>
       <c r="R38" t="n">
-        <v>116.3203681776193</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K39" t="n">
         <v>232.1494122709661</v>
@@ -37642,7 +37642,7 @@
         <v>303.558843027557</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K41" t="n">
         <v>648.7905592051117</v>
@@ -37797,13 +37797,13 @@
         <v>872.2350916254037</v>
       </c>
       <c r="P41" t="n">
-        <v>657.4498698811608</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.1433454771048</v>
+        <v>294.5958720569554</v>
       </c>
       <c r="R41" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K42" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L42" t="n">
-        <v>433.5460773752699</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M42" t="n">
         <v>438.423085790137</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K44" t="n">
         <v>648.7905592051117</v>
       </c>
       <c r="L44" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M44" t="n">
-        <v>641.7714502807971</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N44" t="n">
-        <v>534.7029901623998</v>
+        <v>625.4051254607227</v>
       </c>
       <c r="O44" t="n">
         <v>872.2350916254037</v>
@@ -38037,10 +38037,10 @@
         <v>706.3775386004008</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R44" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K45" t="n">
-        <v>306.7515102197703</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L45" t="n">
         <v>358.9439794264658</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3458892.941290474</v>
+        <v>3462443.501077869</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256413</v>
+        <v>6239134.533256411</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.972106918</v>
+        <v>840694.9721069182</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.57678144609376</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.6257157225927</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>40.62363183383273</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>185.3997192893059</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.52849267329247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>129.1901879642572</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>35.67412096172806</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,7 +1189,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,28 +1293,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>43.31785343913975</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>103.4083158511099</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>22.70858545872759</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T14" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U14" t="n">
         <v>251.0030623803221</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>65.86043026606204</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>135.2009709794781</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T17" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U17" t="n">
         <v>251.0030623803221</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.81869974802212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2142514133935</v>
+        <v>135.2009709794781</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212068</v>
       </c>
       <c r="H20" t="n">
         <v>295.6178616169272</v>
@@ -2137,7 +2137,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.03491730840164</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>74.696374955122</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.81869974802212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>135.2009709794781</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2608,7 +2608,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T26" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U26" t="n">
         <v>251.0030623803221</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>24.79898207516742</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7379838856521</v>
+        <v>159.6461437356193</v>
       </c>
       <c r="U28" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>5.298770435957326</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>130.4482050673214</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>28.81869974802212</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S34" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
-        <v>159.6461437356193</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
         <v>286.2142514133935</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212043</v>
       </c>
       <c r="H35" t="n">
         <v>295.6178616169272</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040384</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>28.81869974802212</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S37" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>159.6461437356193</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
@@ -3520,7 +3520,7 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H38" t="n">
-        <v>295.617861616927</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
         <v>45.37937317040314</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>130.4482050673214</v>
+        <v>55.96618708417652</v>
       </c>
       <c r="T40" t="n">
         <v>219.7379838856521</v>
@@ -3720,7 +3720,7 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>140.0275755133922</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>280.0990916705372</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.0203559212043</v>
+        <v>411.0203559212046</v>
       </c>
       <c r="H44" t="n">
         <v>295.6178616169272</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>42.71774560065769</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
@@ -4155,7 +4155,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>158.1593396068248</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,43 +4409,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
         <v>663.910013048764</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4606,13 +4606,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.344242153658</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="X7" t="n">
-        <v>272.8312459770186</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>540.8565404798628</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>549.649320534154</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C8" t="n">
-        <v>549.649320534154</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="D8" t="n">
-        <v>191.3836219274035</v>
+        <v>496.6346048471284</v>
       </c>
       <c r="E8" t="n">
-        <v>191.3836219274035</v>
+        <v>110.8463522488842</v>
       </c>
       <c r="F8" t="n">
-        <v>184.4381211782</v>
+        <v>103.9008514996807</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>89.97744743827158</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>89.97744743827158</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.2491605982757</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4941,25 +4941,25 @@
         <v>97.69838933464703</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5023,13 +5023,13 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G11" t="n">
         <v>440.1593205155744</v>
@@ -5041,28 +5041,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>280.8839136038042</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K11" t="n">
-        <v>923.1865672168648</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L11" t="n">
-        <v>1772.296432851857</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M11" t="n">
-        <v>2288.682911641541</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N11" t="n">
-        <v>3251.012327070182</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O11" t="n">
-        <v>4114.525067779331</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P11" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q11" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5120,22 +5120,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K12" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L12" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N12" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O12" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P12" t="n">
         <v>2436.525948037006</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.785026420972</v>
+        <v>704.1255806059494</v>
       </c>
       <c r="C13" t="n">
-        <v>346.785026420972</v>
+        <v>535.1893976780425</v>
       </c>
       <c r="D13" t="n">
-        <v>242.3321821269216</v>
+        <v>385.0727582657067</v>
       </c>
       <c r="E13" t="n">
-        <v>242.3321821269216</v>
+        <v>385.0727582657067</v>
       </c>
       <c r="F13" t="n">
-        <v>242.3321821269216</v>
+        <v>385.0727582657067</v>
       </c>
       <c r="G13" t="n">
-        <v>242.3321821269216</v>
+        <v>217.325232607451</v>
       </c>
       <c r="H13" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I13" t="n">
         <v>95.71766921524075</v>
@@ -5223,28 +5223,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1628.77411916334</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T13" t="n">
-        <v>1628.77411916334</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U13" t="n">
-        <v>1339.668814705367</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V13" t="n">
-        <v>1084.98432649948</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="W13" t="n">
-        <v>795.5671564625195</v>
+        <v>1334.556175477737</v>
       </c>
       <c r="X13" t="n">
-        <v>567.5776055645022</v>
+        <v>1106.566624579719</v>
       </c>
       <c r="Y13" t="n">
-        <v>346.785026420972</v>
+        <v>885.7740454361891</v>
       </c>
     </row>
     <row r="14">
@@ -5278,25 +5278,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K14" t="n">
-        <v>597.7080858612028</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1446.817951496195</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M14" t="n">
-        <v>2408.222828443783</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N14" t="n">
-        <v>3370.552243872424</v>
+        <v>2980.869998012461</v>
       </c>
       <c r="O14" t="n">
-        <v>3857.072805131455</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P14" t="n">
-        <v>4237.805847256084</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q14" t="n">
         <v>4667.940766252041</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.71766921524075</v>
+        <v>645.5415778505206</v>
       </c>
       <c r="C16" t="n">
-        <v>95.71766921524075</v>
+        <v>476.6053949226138</v>
       </c>
       <c r="D16" t="n">
-        <v>95.71766921524075</v>
+        <v>476.6053949226138</v>
       </c>
       <c r="E16" t="n">
-        <v>95.71766921524075</v>
+        <v>476.6053949226138</v>
       </c>
       <c r="F16" t="n">
-        <v>95.71766921524075</v>
+        <v>476.6053949226138</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524075</v>
+        <v>308.857869264358</v>
       </c>
       <c r="H16" t="n">
-        <v>95.71766921524075</v>
+        <v>162.2433563526772</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5463,25 +5463,25 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.77411916334</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682884</v>
+        <v>1599.281251821625</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.249922329876</v>
+        <v>1599.281251821625</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.565434123989</v>
+        <v>1344.596763615738</v>
       </c>
       <c r="W16" t="n">
-        <v>726.1482640870279</v>
+        <v>1055.179593578778</v>
       </c>
       <c r="X16" t="n">
-        <v>498.1587131890105</v>
+        <v>827.1900426807604</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.3661340454805</v>
+        <v>827.1900426807604</v>
       </c>
     </row>
     <row r="17">
@@ -5500,7 +5500,7 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F17" t="n">
         <v>855.3313972036599</v>
@@ -5509,7 +5509,7 @@
         <v>440.1593205155744</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I17" t="n">
         <v>95.71766921524075</v>
@@ -5530,13 +5530,13 @@
         <v>3370.552243872424</v>
       </c>
       <c r="O17" t="n">
-        <v>3857.072805131455</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P17" t="n">
-        <v>4237.805847256084</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R17" t="n">
         <v>4785.883460762037</v>
@@ -5551,13 +5551,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y17" t="n">
         <v>2765.933610202796</v>
@@ -5706,19 +5706,19 @@
         <v>1406.816559682884</v>
       </c>
       <c r="U19" t="n">
-        <v>1117.71125522491</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V19" t="n">
-        <v>863.0267670190236</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W19" t="n">
-        <v>573.6095969820631</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X19" t="n">
-        <v>345.6200460840457</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.8274669405156</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138675</v>
       </c>
       <c r="C20" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198264</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591514</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.31730199327</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036617</v>
       </c>
       <c r="G20" t="n">
         <v>440.1593205155744</v>
       </c>
       <c r="H20" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I20" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524079</v>
       </c>
       <c r="J20" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K20" t="n">
-        <v>597.7080858612028</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L20" t="n">
-        <v>1446.817951496195</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M20" t="n">
-        <v>2408.222828443783</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N20" t="n">
-        <v>3370.552243872424</v>
+        <v>2657.180509552857</v>
       </c>
       <c r="O20" t="n">
-        <v>4114.525067779331</v>
+        <v>3520.693250262006</v>
       </c>
       <c r="P20" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476403</v>
       </c>
       <c r="Q20" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252043</v>
       </c>
       <c r="R20" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762039</v>
       </c>
       <c r="S20" t="n">
-        <v>4673.322552666526</v>
+        <v>4673.322552666528</v>
       </c>
       <c r="T20" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902184</v>
       </c>
       <c r="U20" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053374</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709803</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439689</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178609</v>
       </c>
       <c r="Y20" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202797</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>197.3489189817664</v>
       </c>
       <c r="H21" t="n">
-        <v>106.3322115589798</v>
+        <v>106.3322115589799</v>
       </c>
       <c r="I21" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524079</v>
       </c>
       <c r="J21" t="n">
-        <v>258.3150913629254</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111818</v>
+        <v>414.2869325418657</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433829</v>
+        <v>769.6414721740668</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.536404075619</v>
+        <v>1203.680327106302</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.471620890737</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O21" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q21" t="n">
         <v>2587.498588679581</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.71766921524075</v>
+        <v>573.6095969820631</v>
       </c>
       <c r="C22" t="n">
-        <v>95.71766921524075</v>
+        <v>404.6734140541562</v>
       </c>
       <c r="D22" t="n">
-        <v>95.71766921524075</v>
+        <v>404.6734140541562</v>
       </c>
       <c r="E22" t="n">
-        <v>95.71766921524075</v>
+        <v>404.6734140541562</v>
       </c>
       <c r="F22" t="n">
-        <v>95.71766921524075</v>
+        <v>404.6734140541562</v>
       </c>
       <c r="G22" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H22" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I22" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524079</v>
       </c>
       <c r="J22" t="n">
         <v>137.7436613720288</v>
@@ -5952,10 +5952,10 @@
         <v>573.6095969820631</v>
       </c>
       <c r="X22" t="n">
-        <v>498.1587131890105</v>
+        <v>573.6095969820631</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.3661340454805</v>
+        <v>573.6095969820631</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924157</v>
@@ -5989,25 +5989,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K23" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066559</v>
       </c>
       <c r="L23" t="n">
-        <v>1935.127558962002</v>
+        <v>1767.721909941648</v>
       </c>
       <c r="M23" t="n">
-        <v>2451.514037751685</v>
+        <v>2284.108388731332</v>
       </c>
       <c r="N23" t="n">
-        <v>2980.869998012461</v>
+        <v>3246.437804159972</v>
       </c>
       <c r="O23" t="n">
-        <v>3844.382738721611</v>
+        <v>4109.950544869122</v>
       </c>
       <c r="P23" t="n">
-        <v>4285.066269150654</v>
+        <v>4490.68358699375</v>
       </c>
       <c r="Q23" t="n">
         <v>4733.000021926294</v>
@@ -6180,19 +6180,19 @@
         <v>1406.816559682884</v>
       </c>
       <c r="U25" t="n">
-        <v>1117.71125522491</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V25" t="n">
-        <v>863.0267670190236</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W25" t="n">
-        <v>573.6095969820631</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X25" t="n">
-        <v>345.6200460840457</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.8274669405156</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036597</v>
+        <v>855.33139720366</v>
       </c>
       <c r="G26" t="n">
         <v>440.1593205155744</v>
@@ -6223,7 +6223,7 @@
         <v>141.5554198924156</v>
       </c>
       <c r="I26" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
         <v>276.3093906935953</v>
@@ -6241,13 +6241,13 @@
         <v>3370.552243872424</v>
       </c>
       <c r="O26" t="n">
-        <v>4114.52506777933</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P26" t="n">
-        <v>4495.258109903959</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q26" t="n">
-        <v>4733.000021926293</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6256,22 +6256,22 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T26" t="n">
-        <v>4466.908689902181</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V26" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I27" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
         <v>258.3150913629254</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>289.7033289867511</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C28" t="n">
-        <v>120.7671460588442</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D28" t="n">
-        <v>120.7671460588442</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E28" t="n">
-        <v>120.7671460588442</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F28" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G28" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H28" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I28" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
         <v>137.7436613720288</v>
@@ -6414,22 +6414,22 @@
         <v>1720.613957833929</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.656398353472</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.551093895499</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.551093895499</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W28" t="n">
-        <v>920.1339238585383</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X28" t="n">
-        <v>692.144372960521</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y28" t="n">
-        <v>471.3517938169908</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="29">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.71766921524075</v>
+        <v>516.588837377579</v>
       </c>
       <c r="C31" t="n">
-        <v>95.71766921524075</v>
+        <v>347.6526544496721</v>
       </c>
       <c r="D31" t="n">
-        <v>95.71766921524075</v>
+        <v>347.6526544496721</v>
       </c>
       <c r="E31" t="n">
-        <v>95.71766921524075</v>
+        <v>199.739560867279</v>
       </c>
       <c r="F31" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="G31" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H31" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
@@ -6648,25 +6648,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1781.312786268305</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.355226787849</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.249922329876</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.565434123989</v>
+        <v>1436.436602286327</v>
       </c>
       <c r="W31" t="n">
-        <v>726.1482640870279</v>
+        <v>1147.019432249366</v>
       </c>
       <c r="X31" t="n">
-        <v>498.1587131890105</v>
+        <v>919.0298813513489</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.3661340454805</v>
+        <v>698.2373022078187</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K32" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.642956557056</v>
+        <v>1033.333349091249</v>
       </c>
       <c r="M32" t="n">
-        <v>2038.029435346739</v>
+        <v>1994.738226038837</v>
       </c>
       <c r="N32" t="n">
-        <v>2657.180509552855</v>
+        <v>2957.067641467477</v>
       </c>
       <c r="O32" t="n">
-        <v>3520.693250262004</v>
+        <v>3820.580382176627</v>
       </c>
       <c r="P32" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q32" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6882,28 +6882,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S34" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.355226787849</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.249922329876</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.565434123989</v>
+        <v>863.0267670190236</v>
       </c>
       <c r="W34" t="n">
-        <v>726.1482640870279</v>
+        <v>573.6095969820631</v>
       </c>
       <c r="X34" t="n">
-        <v>498.1587131890105</v>
+        <v>345.6200460840457</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.3661340454805</v>
+        <v>124.8274669405156</v>
       </c>
     </row>
     <row r="35">
@@ -6916,49 +6916,49 @@
         <v>2379.333770138674</v>
       </c>
       <c r="C35" t="n">
-        <v>2010.371253198263</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036608</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155751</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924164</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I35" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K35" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.642956557056</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M35" t="n">
-        <v>2038.029435346739</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N35" t="n">
-        <v>2657.180509552855</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O35" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P35" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q35" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -7119,28 +7119,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S37" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.355226787849</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.249922329876</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.565434123989</v>
+        <v>863.0267670190236</v>
       </c>
       <c r="W37" t="n">
-        <v>726.1482640870279</v>
+        <v>573.6095969820631</v>
       </c>
       <c r="X37" t="n">
-        <v>498.1587131890105</v>
+        <v>345.6200460840457</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.3661340454805</v>
+        <v>124.8274669405156</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7174,28 +7174,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K38" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.642956557056</v>
+        <v>1327.278034693953</v>
       </c>
       <c r="M38" t="n">
-        <v>2038.029435346739</v>
+        <v>2288.682911641541</v>
       </c>
       <c r="N38" t="n">
-        <v>2657.180509552855</v>
+        <v>3251.012327070182</v>
       </c>
       <c r="O38" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P38" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q38" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.71766921524075</v>
+        <v>828.0775629940339</v>
       </c>
       <c r="C40" t="n">
-        <v>95.71766921524075</v>
+        <v>659.141380066127</v>
       </c>
       <c r="D40" t="n">
-        <v>95.71766921524075</v>
+        <v>509.0247406537912</v>
       </c>
       <c r="E40" t="n">
-        <v>95.71766921524075</v>
+        <v>509.0247406537912</v>
       </c>
       <c r="F40" t="n">
-        <v>95.71766921524075</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="G40" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H40" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I40" t="n">
         <v>95.71766921524075</v>
@@ -7359,25 +7359,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>1781.312786268305</v>
+        <v>1856.547147867442</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.355226787849</v>
+        <v>1634.589588386985</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.249922329876</v>
+        <v>1345.484283929012</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.565434123989</v>
+        <v>1345.484283929012</v>
       </c>
       <c r="W40" t="n">
-        <v>726.1482640870279</v>
+        <v>1056.067113892051</v>
       </c>
       <c r="X40" t="n">
-        <v>498.1587131890105</v>
+        <v>828.0775629940339</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.3661340454805</v>
+        <v>828.0775629940339</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924155</v>
       </c>
       <c r="I41" t="n">
         <v>95.71766921524075</v>
@@ -7414,25 +7414,25 @@
         <v>276.3093906935953</v>
       </c>
       <c r="K41" t="n">
-        <v>918.6120443066559</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L41" t="n">
-        <v>1767.721909941648</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M41" t="n">
-        <v>2284.108388731332</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N41" t="n">
-        <v>2813.464348992108</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O41" t="n">
-        <v>3676.977089701258</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P41" t="n">
-        <v>4376.290852915655</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q41" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7490,25 +7490,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>258.3150913629254</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111818</v>
+        <v>414.2869325418657</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433829</v>
+        <v>769.6414721740668</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.536404075619</v>
+        <v>1203.680327106302</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.471620890737</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O42" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q42" t="n">
         <v>2587.498588679581</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>704.1255806059494</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C43" t="n">
-        <v>535.1893976780425</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D43" t="n">
-        <v>385.0727582657067</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E43" t="n">
-        <v>237.1596646833136</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F43" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G43" t="n">
         <v>95.71766921524075</v>
@@ -7596,25 +7596,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T43" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="U43" t="n">
-        <v>1623.973345514697</v>
+        <v>1431.508653375956</v>
       </c>
       <c r="V43" t="n">
-        <v>1623.973345514697</v>
+        <v>1176.824165170069</v>
       </c>
       <c r="W43" t="n">
-        <v>1334.556175477737</v>
+        <v>893.8957897452837</v>
       </c>
       <c r="X43" t="n">
-        <v>1106.566624579719</v>
+        <v>665.9062388472663</v>
       </c>
       <c r="Y43" t="n">
-        <v>885.7740454361891</v>
+        <v>445.1136597037362</v>
       </c>
     </row>
     <row r="44">
@@ -7630,46 +7630,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E44" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F44" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H44" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I44" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K44" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.642956557056</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M44" t="n">
-        <v>2038.029435346739</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N44" t="n">
-        <v>2657.180509552855</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O44" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P44" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>806.7790390622906</v>
+        <v>920.1948616882754</v>
       </c>
       <c r="C46" t="n">
-        <v>806.7790390622906</v>
+        <v>751.2586787603685</v>
       </c>
       <c r="D46" t="n">
-        <v>656.6623996499549</v>
+        <v>601.1420393480328</v>
       </c>
       <c r="E46" t="n">
-        <v>508.7493060675617</v>
+        <v>453.2289457656397</v>
       </c>
       <c r="F46" t="n">
-        <v>508.7493060675617</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G46" t="n">
-        <v>341.001780409306</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H46" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I46" t="n">
         <v>95.71766921524075</v>
@@ -7848,10 +7848,10 @@
         <v>1368.976991729823</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.22008303606</v>
+        <v>1140.987440831806</v>
       </c>
       <c r="Y46" t="n">
-        <v>988.4275038925304</v>
+        <v>920.1948616882754</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.620730212332205</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>90.7021352983225</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>53.84110201061765</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.3363706804271</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9178,16 +9178,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>260.0527905534096</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>194.3363706804271</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832472</v>
       </c>
       <c r="O20" t="n">
-        <v>260.0527905534096</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60209794880424</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>74.60209794880376</v>
       </c>
       <c r="R21" t="n">
         <v>3.419393410990523</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9649,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>60.55604879233789</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>4.620730212333029</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>260.0527905534087</v>
+        <v>260.0527905534096</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>90.7021352983229</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>296.9138238411154</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>90.7021352983229</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534096</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>296.9138238411149</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>90.7021352983229</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534096</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.45252657985068</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>74.60209794880424</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>74.60209794880376</v>
       </c>
       <c r="R42" t="n">
         <v>3.419393410990523</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>90.7021352983229</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534096</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>45.20715716710241</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>122.4397823238364</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
         <v>219.7379838856521</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956057</v>
+        <v>31.82247203349853</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0132804339154</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>151.0132804339152</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>151.0132804339154</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>103.0351330932715</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>151.0132804339152</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>151.0132804339152</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>151.0132804339154</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>120.6220659477638</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0700504016732</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>60.09184015003282</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>140.1222775869739</v>
       </c>
       <c r="G31" t="n">
         <v>166.0700504016732</v>
@@ -24858,7 +24858,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S31" t="n">
-        <v>60.09184015003279</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>151.0132804339152</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>60.09184015003282</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>151.0132804339152</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>60.09184015003282</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S40" t="n">
-        <v>60.09184015003279</v>
+        <v>134.5738581331777</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>5.393472509539095</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>145.148367782564</v>
@@ -25836,7 +25836,7 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.7379838856521</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>6.423906666053824</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>102.7033024222736</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>67.55031578221238</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>696967.1128235894</v>
+        <v>696967.1128235892</v>
       </c>
     </row>
     <row r="6">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>696967.1128235892</v>
+        <v>696967.1128235891</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778545</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778548</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778545</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778544</v>
-      </c>
       <c r="E2" t="n">
-        <v>713716.7437146473</v>
+        <v>713716.7437146471</v>
       </c>
       <c r="F2" t="n">
-        <v>713716.7437146476</v>
+        <v>713716.7437146471</v>
       </c>
       <c r="G2" t="n">
         <v>713716.7437146474</v>
       </c>
       <c r="H2" t="n">
-        <v>713716.7437146475</v>
+        <v>713716.7437146474</v>
       </c>
       <c r="I2" t="n">
         <v>713716.7437146474</v>
       </c>
       <c r="J2" t="n">
-        <v>713716.7437146475</v>
+        <v>713716.7437146473</v>
       </c>
       <c r="K2" t="n">
         <v>713716.7437146473</v>
@@ -26346,16 +26346,16 @@
         <v>713716.7437146474</v>
       </c>
       <c r="M2" t="n">
-        <v>713716.7437146473</v>
+        <v>713716.7437146474</v>
       </c>
       <c r="N2" t="n">
-        <v>713716.7437146471</v>
+        <v>713716.7437146476</v>
       </c>
       <c r="O2" t="n">
-        <v>713716.7437146473</v>
+        <v>713716.7437146475</v>
       </c>
       <c r="P2" t="n">
-        <v>713716.7437146473</v>
+        <v>713716.7437146474</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518281</v>
+        <v>708251.096751828</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.294056799587538e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.885854000221284e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581159</v>
       </c>
       <c r="F4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581163</v>
       </c>
       <c r="G4" t="n">
         <v>23693.12563581164</v>
       </c>
       <c r="H4" t="n">
+        <v>23693.12563581162</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23693.12563581165</v>
+      </c>
+      <c r="J4" t="n">
         <v>23693.12563581164</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23693.12563581164</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23693.12563581163</v>
       </c>
       <c r="K4" t="n">
         <v>23693.12563581164</v>
@@ -26456,7 +26456,7 @@
         <v>23693.12563581164</v>
       </c>
       <c r="O4" t="n">
-        <v>23693.12563581163</v>
+        <v>23693.12563581164</v>
       </c>
       <c r="P4" t="n">
         <v>23693.12563581164</v>
@@ -26487,13 +26487,13 @@
         <v>95967.71339206918</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="I5" t="n">
         <v>95967.71339206918</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.71339206917</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="K5" t="n">
         <v>95967.71339206918</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126095.9607925289</v>
+        <v>-126095.9607925292</v>
       </c>
       <c r="C6" t="n">
-        <v>463871.9184220153</v>
+        <v>463871.9184220155</v>
       </c>
       <c r="D6" t="n">
-        <v>463871.9184220153</v>
+        <v>463871.9184220156</v>
       </c>
       <c r="E6" t="n">
-        <v>-114895.7712084841</v>
+        <v>-114265.2499794039</v>
       </c>
       <c r="F6" t="n">
-        <v>593355.3255433444</v>
+        <v>593985.8467724241</v>
       </c>
       <c r="G6" t="n">
-        <v>593355.3255433441</v>
+        <v>593985.8467724243</v>
       </c>
       <c r="H6" t="n">
-        <v>593355.3255433443</v>
+        <v>593985.8467724239</v>
       </c>
       <c r="I6" t="n">
-        <v>593355.3255433441</v>
+        <v>593985.8467724244</v>
       </c>
       <c r="J6" t="n">
-        <v>416932.1063507514</v>
+        <v>417562.6275798313</v>
       </c>
       <c r="K6" t="n">
-        <v>593355.325543344</v>
+        <v>593985.8467724242</v>
       </c>
       <c r="L6" t="n">
-        <v>593355.3255433441</v>
+        <v>593985.8467724243</v>
       </c>
       <c r="M6" t="n">
-        <v>463225.0855739346</v>
+        <v>463855.6068030149</v>
       </c>
       <c r="N6" t="n">
-        <v>593355.3255433439</v>
+        <v>593985.8467724245</v>
       </c>
       <c r="O6" t="n">
-        <v>593355.325543344</v>
+        <v>593985.8467724244</v>
       </c>
       <c r="P6" t="n">
-        <v>593355.325543344</v>
+        <v>593985.8467724241</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26807,7 +26807,7 @@
         <v>1196.470865190509</v>
       </c>
       <c r="H4" t="n">
-        <v>1196.470865190509</v>
+        <v>1196.47086519051</v>
       </c>
       <c r="I4" t="n">
         <v>1196.470865190509</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731069</v>
+        <v>687.4987572731068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.220884699764477e-12</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.220884699764477e-12</v>
       </c>
     </row>
   </sheetData>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.220884699764477e-12</v>
       </c>
     </row>
   </sheetData>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>82.85718120047541</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>149.1081259408879</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>329.1074688446363</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>26.74581966071301</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.0561606788023</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>284.5939820565378</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>116.2571952831332</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>1.882105749397248</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>187.0366104934985</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K11" t="n">
         <v>648.7905592051117</v>
       </c>
       <c r="L11" t="n">
-        <v>857.686732964639</v>
+        <v>530.727653712511</v>
       </c>
       <c r="M11" t="n">
         <v>521.6025038279632</v>
       </c>
       <c r="N11" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O11" t="n">
         <v>872.2350916254037</v>
       </c>
       <c r="P11" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q11" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R11" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K12" t="n">
         <v>232.1494122709661</v>
@@ -35506,7 +35506,7 @@
         <v>402.5566389383719</v>
       </c>
       <c r="P12" t="n">
-        <v>378.1609409763607</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q12" t="n">
         <v>152.4976168106822</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K14" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L14" t="n">
         <v>857.686732964639</v>
       </c>
       <c r="M14" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N14" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O14" t="n">
-        <v>491.4349103626583</v>
+        <v>545.276012373276</v>
       </c>
       <c r="P14" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q14" t="n">
-        <v>434.4797161575318</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R14" t="n">
         <v>119.1340348585825</v>
@@ -35898,16 +35898,16 @@
         <v>972.049914574384</v>
       </c>
       <c r="O17" t="n">
-        <v>491.4349103626583</v>
+        <v>751.487700916068</v>
       </c>
       <c r="P17" t="n">
         <v>384.5788304289181</v>
       </c>
       <c r="Q17" t="n">
-        <v>434.4797161575318</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R17" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K20" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L20" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M20" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N20" t="n">
-        <v>972.049914574384</v>
+        <v>625.4051254607245</v>
       </c>
       <c r="O20" t="n">
-        <v>751.487700916068</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R20" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>164.2398203511966</v>
+        <v>89.63772240239237</v>
       </c>
       <c r="K21" t="n">
         <v>232.1494122709661</v>
@@ -36220,7 +36220,7 @@
         <v>303.558843027557</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K23" t="n">
         <v>648.7905592051117</v>
@@ -36369,16 +36369,16 @@
         <v>521.6025038279632</v>
       </c>
       <c r="N23" t="n">
-        <v>534.7029901623998</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O23" t="n">
         <v>872.2350916254037</v>
       </c>
       <c r="P23" t="n">
-        <v>445.134879221256</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q23" t="n">
-        <v>452.4583361370094</v>
+        <v>244.7640756894378</v>
       </c>
       <c r="R23" t="n">
         <v>53.41761498560004</v>
@@ -36609,7 +36609,7 @@
         <v>972.049914574384</v>
       </c>
       <c r="O26" t="n">
-        <v>751.4877009160671</v>
+        <v>751.487700916068</v>
       </c>
       <c r="P26" t="n">
         <v>384.5788304289181</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K32" t="n">
-        <v>648.7905592051117</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L32" t="n">
         <v>440.0255184141885</v>
       </c>
       <c r="M32" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N32" t="n">
-        <v>625.4051254607227</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O32" t="n">
         <v>872.2350916254037</v>
       </c>
       <c r="P32" t="n">
-        <v>706.3775386004008</v>
+        <v>681.4926542700335</v>
       </c>
       <c r="Q32" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R32" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K35" t="n">
-        <v>648.7905592051117</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L35" t="n">
-        <v>440.0255184141885</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M35" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N35" t="n">
-        <v>625.4051254607227</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O35" t="n">
-        <v>872.2350916254037</v>
+        <v>751.487700916068</v>
       </c>
       <c r="P35" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q35" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R35" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K38" t="n">
-        <v>648.7905592051117</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L38" t="n">
-        <v>440.0255184141885</v>
+        <v>736.9393422553035</v>
       </c>
       <c r="M38" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N38" t="n">
-        <v>625.4051254607227</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O38" t="n">
         <v>872.2350916254037</v>
       </c>
       <c r="P38" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q38" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R38" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K41" t="n">
-        <v>648.7905592051117</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L41" t="n">
         <v>857.686732964639</v>
       </c>
       <c r="M41" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N41" t="n">
-        <v>534.7029901623998</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O41" t="n">
-        <v>872.2350916254037</v>
+        <v>751.487700916068</v>
       </c>
       <c r="P41" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q41" t="n">
-        <v>294.5958720569554</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R41" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>164.2398203511966</v>
+        <v>89.63772240239237</v>
       </c>
       <c r="K42" t="n">
         <v>232.1494122709661</v>
@@ -37879,7 +37879,7 @@
         <v>303.558843027557</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K44" t="n">
-        <v>648.7905592051117</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L44" t="n">
-        <v>440.0255184141885</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M44" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N44" t="n">
-        <v>625.4051254607227</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O44" t="n">
-        <v>872.2350916254037</v>
+        <v>751.487700916068</v>
       </c>
       <c r="P44" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q44" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R44" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
